--- a/Data Sets/Lemmatized Hotel Reviews.xlsx
+++ b/Data Sets/Lemmatized Hotel Reviews.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Dhaka Regency" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ascott The Residence Dhaka" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4503,4 +4504,2753 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A390"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Lemmatized Reviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'dhaka', 'security', 'n', 'safety', 'area', 'baridha', 'diplomatic', 'zonewe', 'feel', 'comfortable', 'therevery', 'nice', 'well', 'decorated', 'meeting', 'venueservice', 'stuff', 'professionally', 'take', 'care', 'specially', 'mr', 'basher', 'give', 'u', 'nice', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>['made', 'meeting', 'nabiha', 'restaurant', 'ascott', 'residence', 'dhaka', 'good', 'looking', 'n', 'nice', 'decorated', 'restaurant', 'good', 'food', 'n', 'excellent', 'service', 'specially', 'mr', 'bashers', 'cordial', 'n', 'good', 'service', 'provide', 'u']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>['fantastic', 'experience', 'ascott', 'residence', 'hotel', 'baridhara', 'dhaka', 'hotel', 'location', 'inside', 'diplomatic', 'zone', 'ideal', 'staff', 'incredibly', 'professional', 'cordial', 'special', 'shoutout', 'mr', 'bashar', 'provided', 'exceptional', 'service', 'highly', 'recommend', 'place', 'comfortable', 'stay', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>['good', 'food', 'service', 'overall', 'mr', 'bashar', 'good', 'service', 'provider', 'u', 'business', 'meeting', 'company', 'arranged', 'quarterly', 'workshop', 'day', 'overall', 'experience', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>['stay', 'started', 'warm', 'welcome', 'exceptional', 'friendly', 'staff', 'hotel', 'reception', 'followed', 'nice', 'friendly', 'people', 'good', 'food', 'relaxing', 'atmosphere', 'breakfast', 'lounge', 'many', 'thanks', 'bashar', 'sonia', 'kanniya', 'making', 'breakfast', 'time', 'memorable', 'pleasant', 'wearing', 'best', 'cricket', 'team', 'shirt', 'cricket', 'world', 'cup', 'best', 'regard', 'good', 'luck', 'wc', 'friend', 'norway', 'jan', 'una']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>['mr', 'bashar', 'great', 'service', 'enjoyed', 'stay', 'near', 'airport', 'assisted', 'served', 'hospitality', 'wonderful', 'experience', 'hotel', 'besides', 'value', 'money']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'dhaka', 'really', 'feel', 'safety', 'security', 'home', 'like', 'house', 'room', 'comfortable', 'service', 'stuff', 'good', 'specially', 'mr', 'bashar', 'give', 'easy', 'stay', 'tidy', 'n', 'clean', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>['comfortable', 'stay', 'good', 'staff', 'eg', 'mr', 'bashar', 'breakfast', 'floor', 'hotel', 'diplomatic', 'zone', 'dhaka', 'seeking', 'stay', 'baridhara', 'area', 'business', 'embassy', 'workds', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>['service', 'excellent', 'served', 'colleague', 'mr', 'bashar', 'hospitable', 'welcoming', 'environment', 'perfect', 'business', 'meeting', 'highly', 'recommended', 'anyone', 'visit', 'authentic', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['staff', 'nice', 'take', 'care', 'every', 'need', 'guest', 'mr', 'bashar', 'taken', 'everything', 'like', 'im', 'vegetarian', 'hotel', 'provided', 'vegetarian', 'food', 'whenever', 'asked', 'always', 'recommend', 'hotel', 'friend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>['hotel', 'beautiful', 'room', 'tidy', 'bed', 'comfortable', 'staff', 'accommodating', 'especially', 'room', 'service', 'good', 'restaurant', 'people', 'good', 'gave', 'good', 'service', 'abul', 'bashar', 'good', 'among', 'flexible']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>['good', 'stay', 'ascott', 'residence', 'hotel', 'came', 'company', 'joyton', 'day', 'long', 'programme', 'serenity', 'hall', 'good', 'event', 'enjoy', 'specially', 'mr', 'brasher', 'give', 'service', 'nabiha', 'restaurant', 'breakfast', 'thanks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'mr', 'bashar', 'help', 'prepared', 'special', 'tea', 'ascott', 'residence', 'dhaka', 'feel', 'comfortable', 'n', 'safety', 'security', 'like', 'home', 'room', 'good', 'staying', 'food', 'also', 'good', 'service', 'stuff', 'make', 'easy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>['come', 'dhaka', 'visited', 'several', 'place', 'eating', 'international', 'traveller', 'eating', 'important', 'usthe', 'hotel', 'one', 'best', 'eatery', 'dhaka', 'chef', 'mr', 'basher', 'azmal', 'emon', 'really', 'outdone', 'recreating', 'delicious', 'international', 'cuisine', 'hotel', 'dining', 'scene', 'meat', 'tender', 'serving', 'done', 'meticulous', 'attention', 'seasoning', 'optimized', 'experience', 'international', 'tastenot', 'catering', 'local', 'tounge', 'creating', 'perfect', 'balance', 'taste', 'important', 'hopefully', 'next', 'visit', 'ill', 'able', 'meet', 'another', 'delightful', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>['really', 'happy', 'accomodation', 'hotel', 'hotel', 'staff', 'warm', 'welcoming', 'nature', 'food', 'facility', 'excellent', 'morning', 'breakfast', 'buffet', 'really', 'good', 'mr', 'bashar', 'morning', 'staff', 'really', 'helped', 'lot', 'stay', 'definitely', 'come', 'back', 'hotel', 'located', 'safest', 'spot', 'country', 'gladly', 'recommend', 'place', 'anyone', 'visiting', 'dhaka', 'outside']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>['staff', 'ascott', 'extremely', 'hospitable', 'went', 'way', 'make', 'feel', 'comfortable', 'zannat', 'basharr', 'anowarr', 'masud', 'karniya', 'disharri', 'suvro', 'tarik', 'mehdi', 'shafiq', 'allof', 'staff', 'member', 'great', 'job', 'creating', 'homely', 'atmosphere']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>['good', 'kind', 'service', 'espacially', 'mr', 'bashar', 'taken', 'good', 'care', 'breakfast', 'hotel', 'located', 'friendly', 'neighborhood', 'good', 'place', 'people', 'service', 'id', 'would', 'surely', 'visit', 'hotel', 'next', 'trip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>['homely', 'environment', 'nice', 'service', 'good', 'food', 'safe', 'environment', 'mr', 'bashar', 'cordial', 'safe', 'place', 'expat', 'personnel', 'scanning', 'facility', 'front', 'gate', 'nice', 'housekeeping', 'hotel', 'crewm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>['best', 'thing', 'ascott', 'residence', 'hotel', 'dhaka', 'amazing', 'team', 'whice', 'ensure', 'needsspecially', 'mr', 'brasher', 'professional', 'well', 'known', 'hospitality', 'service', 'mir', 'arfan', 'm', 'karnia', 'give', 'good', 'service', 'breakfast', 'thanks', 'team', 'residence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'every', 'staff', 'gender', 'sensitive', 'food', 'quality', 'good', 'room', 'space', 'enough', 'every', 'time', 'manager', 'responsible', 'person', 'asked', 'need', 'provide', 'support', 'swimming', 'pool']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>['food', 'great', 'lunch', 'family', 'ordered', 'beef', 'kadai', 'mutton', 'biroyani', 'etc', 'mr', 'bashar', 'served', 'u', 'smile', 'nice', 'ambiance', 'plesure', 'experience', 'youre', 'near', 'baridhara', 'visit', 'stay', 'good', 'place', 'friend', 'family']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>['super', 'management', 'im', 'highly', 'happy', 'specially', 'thanks', 'abubakor', 'munsi', 'nice', 'man', 'caring', 'best', 'ascott', 'dhakathis', 'hotel', 'clean', 'staff', 'friendly', 'come', 'back', 'thanks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>['ascottt', 'residenceh', 'hotel', 'happy', 'hospitality', 'service', 'specially', 'mr', 'basher', 'good', 'service', 'provide', 'u', 'mr', 'mehedy', 'also', 'givehelping', 'good', 'support', 'room', 'n', 'restaurant', 'good', 'n', 'nice', 'decoration', 'happy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>['thanks', 'ascott', 'resident', 'hotel', 'dhaka', 'baridhara', 'nice', 'experience', 'excellent', 'service', 'behaviour', 'staff', 'accommodation', 'excellent', 'thanks', 'ascott', 'resident', 'food', 'good', 'one', 'staf', 'member', 'mr', 'bashir', 'good', 'service', 'breakfast', 'time', 'thanks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>['alcott', 'resident', 'dhaka', 'safety', 'security', 'zone', 'baridhara', 'diplomatic', 'fell', 'comfortable', 'clean', 'nice', 'organised', 'hotelbuffet', 'breakfast', 'really', 'good', 'service', 'stuff', 'specially', 'mr', 'basher', 'give', 'special', 'service', 'u']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>['happy', 'good', 'service', 'nice', 'comfortable', 'enjoy', 'ascott', 'residence', 'dhaka', 'good', 'food', 'service', 'specially', 'mr', 'brasher', 'give', 'easy', 'stayi', 'come', 'good', 'safety', 'n', 'clean', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'nice', 'food', 'restaurant', 'specially', 'mr', 'bashan', 'karnia', 'mehede', 'give', 'u', 'good', 'service', 'time', 'room', 'clean', 'hotel', 'area', 'safety', 'friend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>['want', 'hold', 'small', 'medium', 'range', 'meeting', 'great', 'meeting', 'space', 'want', 'business', 'meeting', 'great', 'food', 'place', 'looking', 'ask', 'bashar', 'get', 'even', 'great', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>['best', 'thing', 'place', 'staff', 'amazing', 'team', 'ensures', 'great', 'experience', 'stay', 'people', 'like', 'bashar', 'restaurant', 'go', 'beyond', 'call', 'duty', 'take', 'care', 'need']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>['frequent', 'visitor', 'hotel', 'kolkata', 'used', 'come', 'dhaka', 'frequently', 'mostly', 'prefer', 'stay', 'ascott', 'residence', 'food', 'comfort', 'room', 'satisfactory', 'also', 'sincere', 'hospitality', 'staff', 'like', 'habib', 'bhai', 'made', 'feel', 'ease']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>['good', 'food', 'nabihah', 'restaurant', 'cafe', 'great', 'service', 'mr', 'basher', 'mr', 'emon', 'ascott', 'hotel', 'located', 'calm', 'peaceful', 'part', 'diplomatic', 'enclave', 'noise', 'pollution', 'safe', 'area', 'stay', 'try', 'prawn', 'malai', 'curry', 'seasonal', 'fruit', 'cocktail', 'delicious']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>['comfortable', 'hotel', 'attentive', 'service', 'location', 'diplomatic', 'area', 'away', 'commercial', 'besides', 'breakfast', 'ate', 'dinner', 'hotel', 'food', 'tasty', 'international', 'local', 'dish', 'available']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'nice', 'place', 'dine', 'particularly', 'sky', 'top', 'restaurantcordial', 'staff', 'particular', 'liked', 'hospitality', 'friendly', 'guidance', 'given', 'one', 'hotel', 'staff', 'named', 'mr', 'anowar', 'room', 'attendantwho', 'took', 'tour', 'around', 'hoteland', 'facility']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>['amazing', 'hospitality', 'business', 'event', 'wonderfully', 'organized', 'ascott', 'residence', 'dhaka', 'special', 'service', 'mr', 'basher', 'mr', 'mehedi', 'thier', 'outstanding', 'team', 'thank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'staff', 'nice', 'helpful', 'always', 'ask', 'always', 'game', 'good', 'conversation', 'always', 'make', 'sure', 'taken', 'care', 'prop', 'especially', 'habib', 'great', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'dhaka', 'mr', 'basar', 'cordial', 'response', 'serviced', 'japan', 'embassy', 'programme', 'behaviour', 'service', 'good', 'active', 'great', 'work', 'wish', 'good', 'luck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>['excellent', 'food', 'ambience', 'got', 'tremendous', 'service', 'mehedi', 'basar', 'karnia', 'khairul', 'japan', 'embassy', 'food', 'beverage', 'great', 'outdoor', 'catering', 'nice', 'wish', 'best', 'ascott', 'palace']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>['good', 'roman', 'good', 'person', 'good', 'time', 'hotel', 'good', 'servicethe', 'hotel', 'environment', 'good', 'spacious', 'room', 'delicious', 'breakfastroom', 'service', 'always', 'prompt', 'attentive', 'bangladesh', 'make', 'feel', 'happy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'residence', 'hotel', 'comfortable', 'room', 'well', 'decorates', 'safety', 'n', 'security', 'full', 'area', 'enjoy', 'like', 'home', 'happy', 'ascott', 'food', 'nice', 'service', 'stuff', 'well', 'good', 'service', 'provide', 'specially', 'mr', 'bher', 'give', 'nice', 'support', 'mr', 'emon', 'special', 'make', 'coffee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>['hotel', 'secured', 'safe', 'good', 'hospitality', 'mr', 'basar', 'prepared', 'nice', 'coffee', 'also', 'polite', 'gentle', 'hotel', 'providing', 'support', 'per', 'guest', 'need', 'resturant', 'service', 'good', 'several', 'item', 'found', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>['came', 'business', 'basudhara', 'companywe', 'stayed', 'ascott', 'residencehotel', 'nice', 'stayvery', 'good', 'security', 'n', 'safety', 'areawe', 'stay', 'comfortablevery', 'good', 'service', 'stuff', 'friendlyspecially', 'mr', 'basher', 'give', 'u', 'easy', 'stayed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>['happy', 'ascott', 'residence', 'dhakai', 'stayed', 'comfortablevery', 'clean', 'n', 'oraganised', 'hotel', 'service', 'stuff', 'frofesonalspecialy', 'mr', 'basher', 'give', 'good', 'service', 'breakfasthe', 'make', 'coffee', 'nice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>['good', 'accommodation', 'service', 'homey', 'area', 'safe', 'food', 'tasty', 'especially', 'mr', 'bashar', 'abubakor', 'thank', 'much', 'always', 'asking', 'smile', 'every', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'hotel', 'wonderful', 'experience', 'last', 'visit', 'best', 'hotel', 'dhaka', 'cityroom', 'nice', 'clean', 'food', 'option', 'good', 'breakfast', 'markable', 'deliciousthe', 'staff', 'always', 'smile', 'welcoming', 'guest', 'specially', 'mr', 'shafiq', 'reception', 'helpful', 'always', 'look', 'methe', 'hotel', 'surround', 'also', 'nice', 'attractive', 'im', 'highly', 'recommended', 'ascott', 'hotel', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>['would', 'definitely', 'stay', 'would', 'like', 'extend', 'appreciation', 'staff', 'specially', 'mr', 'shafiq', 'mr', 'abdullah', 'duty', 'visit', 'responsibility', 'pleasant', 'helpful', 'nature', 'made', 'stay', 'even', 'enjoyable', 'kind', 'attentiveness', 'need', 'prompt', 'assistance', 'truly', 'exemplified', 'epitome', 'exceptional', 'service', 'overall', 'combination', 'outstanding', 'service', 'excellent', 'facility', 'reception', 'room', 'food', 'warm', 'hospitality', 'staff', 'made', 'stay', 'ascott', 'residence', 'hotel', 'dhaka', 'wholeheartedly', 'recommend', 'ascott', 'hotel', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'beautiful', 'hotel', 'visit', 'dhaka', 'breakfast', 'variety', 'delicious', 'staff', 'hotel', 'good', 'costumer', 'service', 'met', 'mr', 'bashar', 'mr', 'emon', 'attended', 'well', 'everything', 'needed', 'full', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>['happy', 'ascott', 'residencei', 'stayed', 'company', 'toshiba', 'nice', 'hotel', 'dhakaroom', 'nice', 'well', 'decorat', 'security', 'n', 'safety', 'area', 'baridhaservice', 'stuff', 'good', 'specially', 'mr', 'basher', 'give', 'u', 'stay', 'thank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>['room', 'comfortable', 'staff', 'super', 'friendly', 'helpful', 'thank', 'much', 'mr', 'mehedi', 'mr', 'bashar', 'help', 'hotel', 'clean', 'organized', 'staff', 'keep', 'time', 'perfect', 'state']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'opinion', 'best', 'hotel', 'bangladesh', 'stayed', 'hotel', 'service', 'staff', 'excellent', 'restaurant', 'food', 'superb', 'particular', 'staff', 'cleaner', 'manager', 'exceptional', 'especially', 'desk', 'mr', 'shafiq', 'habib', 'abdullah', 'helpful']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>['stay', 'really', 'lovely', 'comfortable', 'room', 'air', 'conditioning', 'staff', 'delightful', 'food', 'delicious', 'would', 'highly', 'recommend', 'hotel', 'particularly', 'mention', 'mr', 'shafiq', 'abdullah', 'islam', 'helpful', 'dhaka', 'fantastic', 'city', 'beautiful', 'people', 'tranquil', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>['hotel', 'good', 'room', 'comfortable', 'ascott', 'residence', 'dhaka', 'best', 'choice', 'specially', 'mrbashar', 'give', 'good', 'service', 'bakery', 'dinner', 'area', 'well', 'coffee', 'excelent', 'staff', 'good', 'servicemind']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>['veryhappystaywithascotttheresidence', 'dahai', 'sayed', 'herecouplesdayverynicecomfortableservicestuffareverynicespeceillymrbashergivemeverycomfortableaslo', 'mr', 'emonnms', 'karniaservice', 'good', 'comebackagain']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>['peaceful', 'location', 'caring', 'staff', 'staff', 'also', 'flexible', 'accomodating', 'request', 'part', 'city', 'gulshan', 'across', 'street', 'shopping', 'worth', 'deal', 'would', 'want', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>['good', 'hospitality', 'management', 'well', 'behaved', 'team', 'fellow', 'cared', 'guest', 'requirement', 'tried', 'address', 'special', 'need', 'appreciate', 'effort', 'specially', 'support', 'servic', 'staff', 'mr', 'bashar', 'cared', 'event']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>['ascott', 'conveniently', 'located', 'news', 'office', 'service', 'outstanding', 'mr', 'bashar', 'friendly', 'served', 'u', 'exceptionally', 'well', 'professionalism', 'service', 'really', 'stand', 'safety', 'security', 'added', 'point', 'located', 'baridhara', 'diplomatic', 'zone']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'great', 'hotel', 'breakfast', 'impressive', 'brilliant', 'service', 'mr', 'bashar', 'make', 'feel', 'home', 'room', 'exquisite', 'staff', 'happy', 'help', 'anytime', 'smile', 'great', 'location', 'tok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>['extremely', 'comfortable', 'stay', 'bunch', 'motivated', 'happy', 'staff', 'always', 'going', 'way', 'meet', 'need', 'comfortable', 'bed', 'clean', 'good', 'food', 'special', 'thanks', 'mr', 'tareq', 'salman', 'sonia', 'bashar', 'making', 'u', 'feel', 'home', 'highly', 'recommend', 'ascot', 'looking', 'nice', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>['food', 'quality', 'good', 'safety', 'security', 'hygienic', 'lobby', 'room', 'excellent', 'behaviour', 'staff', 'specially', 'mr', 'bashar', 'good', 'person', 'feel', 'free', 'contact', 'indian', 'food', 'service', 'need', 'got', 'really', 'appreciate']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'hotel', 'staff', 'bashar', 'nice', 'place', 'atmosphere', 'visiting', 'business', 'area', 'safe', 'comfortable', 'recommend', 'hotel', 'area', 'dinner', 'good', 'recommend', 'variety', 'menu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'stay', 'long', 'timei', 'happy', 'ascott', 'residence', 'hotel', 'dhakamr', 'bashar', 'give', 'special', 'service', 'well', 'known', 'hospitalityfood', 'nice', 'saefty', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>['absolutely', 'beautiful', 'good', 'hotel', 'complain', 'anything', 'staff', 'friendly', 'helful', 'specially', 'mr', 'shafiq', 'fo', 'always', 'help', 'look', 'breakfast', 'really', 'delicious', 'inshallah', 'come', 'back', 'restaurant', 'staff', 'also', 'helful']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>['recently', 'pleasure', 'staying', 'hotel', 'mr', 'shafikul', 'served', 'front', 'desk', 'manager', 'must', 'say', 'experience', 'hotel', 'greatly', 'enhanced', 'exceptional', 'service', 'professional', 'attitude', 'topnotch', 'customer', 'service', 'skill', 'professionalism', 'unwavering', 'dedication', 'guest', 'satisfaction', 'made', 'stay', 'hotel', 'truly', 'memorable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>['visited', 'several', 'time', 'enjoyed', 'staying', 'room', 'food', 'good', 'also', 'hotel', 'stuff', 'friendly', 'specially', 'mr', 'bashar', 'humble', 'person', 'like', 'service', 'overall', 'like', 'ascot', 'residence', 'much', 'recommend', 'also', 'thank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>['wonderful', 'experience', 'ascott', 'hotel', 'dhaka', 'restaurant', 'food', 'assom', 'room', 'net', 'clean', 'hotel', 'check', 'check', 'procedure', 'verybprofessional', 'hotel', 'staff', 'friendly', 'help', 'fullmr', 'shafiqul', 'one', 'im', 'strongly', 'recommended', 'ascott', 'hotel', 'dhaka', 'best', 'hotel', 'dhaka', 'city']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>['absolutely', 'beautiful', 'relaxing', 'complain', 'anything', 'friendly', 'helpful', 'staff', 'specially', 'mr', 'shafiq', 'front', 'office', 'always', 'help', 'look', 'mewe', 'took', 'inclusive', 'deal', 'breakfast', 'lunch', 'dinner', 'great', 'nabihah', 'restaurant', 'also', 'sakura', 'japanese', 'restaurant', 'hade', 'great', 'flover', 'u', 'highly', 'reccommend', 'anyone']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'hotel', 'dhaka', 'day', 'business', 'purpose', 'location', 'good', 'near', 'masjid', 'lot', 'restaurant', 'near', 'room', 'big', 'clean', 'kitchen', 'also', 'big', 'refregerator', 'keep', 'food', 'good', 'long', 'stay', 'dhaka', 'would', 'like', 'give', 'credit', 'staff', 'reception', 'abdulla', 'islam', 'habib', 'specially', 'mention', 'mr', 'shafiq', 'gentleman', 'helpful', 'person', 'helpfull', 'check', 'check', 'also', 'kind', 'service', 'forget', 'ascott', 'hotel', 'dhaka', 'first', 'forever', 'frind', 'dhaka', 'city', 'thatks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>['viited', 'acott', 'residenec', 'hotel', 'company', 'ihi', 'nice', 'noable', 'stayed', 'secutrity', 'n', 'ty', 'earm', 'nice', 'decoradedservice', 'stuff', 'ell', 'known', 'personspeciallly', 'mr', 'basher', 'give', 'fell', 'cmtablehie', 'make', 'coffee', 'nice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>['excellent', 'property', 'convenient', 'front', 'desk', 'staff', 'extremely', 'efficient', 'pleasant', 'helpful', 'property', 'clean', 'fantastic', 'atmosphere', 'overall', 'great', 'experience', 'atr', 'dhaka', 'staff', 'incredibly', 'helpful', 'especially', 'shafiqul', 'islamduty', 'manager', 'veryprofessional', 'helpful', 'amenity', 'great', 'room', 'wonderful', 'clean', 'perfect', 'celebrate', 'desired', 'occasion', 'coming', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>['cosy', 'hotel', 'staff', 'humble', 'nice', 'especially', 'mr', 'bashar', 'take', 'care', 'well', 'deluxe', 'room', 'better', 'star', 'hotel', 'maintenance', 'improved', 'accessible', 'airport']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>['everything', 'good', 'mr', 'islam', 'restaurant', 'collegues', 'nice', 'servicial', 'food', 'service', 'realy', 'good', 'condition', 'hotel', 'clean', 'confortable', 'recommend', 'hotel', 'tonother', 'peolple']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>['im', 'fully', 'satisfied', 'service', 'included', 'food', 'quality', 'good', 'hygenic', 'hotel', 'decor', 'far', 'nicest', 'ive', 'ever', 'seen', 'playful', 'stylish', 'tasteful', 'yet', 'trendy', 'feature', 'cool', 'blue', 'white', 'metal', 'trimhotel', 'nit', 'cleanthe', 'stuff', 'also', 'well', 'behaved', 'u', 'mrshafiq', 'mrabdullah', 'reception', 'receptionist', 'helpful', 'provided', 'best', 'servicestheir', 'commumication', 'level', 'customer', 'friendly']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>['fully', 'satisfy', 'service', 'hotel', 'environment', 'service', 'food', 'quality', 'really', 'good', 'family', 'spend', 'good', 'time', 'hotel', 'excited', 'come', 'hotel', 'staff', 'attitude', 'maner', 'really', 'good', 'specially', 'shafiq', 'duty', 'managerhe', 'professional', 'co', 'cooperative']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>['restaurant', 'hotel', 'deserves', 'special', 'mention', 'food', 'simply', 'exquisite', 'dining', 'experience', 'nothing', 'short', 'exceptional', 'variety', 'dish', 'offered', 'impeccable', 'service', 'provided', 'restaurant', 'staff', 'made', 'meal', 'delightful', 'experience', 'furthermore', 'would', 'like', 'commend', 'mr', 'bashar', 'entire', 'team', 'remarkable', 'dedication', 'attentiveness', 'throughout', 'stay', 'warmth', 'professionalism', 'made', 'feel', 'welcome', 'wellcared', 'visit', 'truly', 'testament', 'outstanding', 'quality', 'staff', 'commitment', 'providing', 'excellent', 'guest', 'experience', 'would', 'like', 'express', 'gratitude', 'wonderful', 'hospitality', 'experienced', 'time', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>['staff', 'hotel', 'welcoming', 'warm', 'well', 'mannered', 'especially', 'sonia', 'bashar', 'restaurant', 'one', 'entrance', 'front', 'desk', 'also', 'welcoming', 'would', 'much', 'like', 'come', 'back', 'next', 'time', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>['tasty', 'food', 'excellent', 'service', 'yummy', 'fried', 'rice', 'spicy', 'chili', 'oil', 'chicken', 'salmon', 'cooked', 'perfect', 'delicious', 'worker', 'nice', 'helpful', 'pudding', 'tasty', 'cherry', 'top', 'mr', 'bashar', 'helpful', 'table']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'located', 'baridhara', 'diplomatic', 'zone', 'safe', 'clean', 'staff', 'super', 'helpful', 'friendly', 'esp', 'mr', 'bashar', 'restaurant', 'bellboy', 'couldnt', 'remember', 'name', 'food', 'good', 'portion', 'big', 'think', 'quite', 'expensive', 'take', 'long', 'time', 'cook']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>['ive', 'traveled', 'world', 'stayed', 'finest', 'hotel', 'including', 'aman', 'resort', 'never', 'experienced', 'incredible', 'level', 'service', 'received', 'ascott', 'residence', 'dhaka', 'bangladesh', 'every', 'single', 'staff', 'member', 'met', 'always', 'smile', 'face', 'gone', 'way', 'provide', 'best', 'service', 'ever', 'received', 'list', 'employee', 'gone', 'way', 'make', 'sure', 'stay', 'exceptional', 'many', 'list', 'wanted', 'mention', 'entire', 'management', 'team', 'concierge', 'staff', 'restaurant', 'staff', 'housekeeping', 'staff', 'made', 'stay', 'one', 'never', 'forget', 'special', 'thank', 'zannat', 'mahmud', 'mohammad', 'sonia', 'mozid', 'habib', 'mr', 'bashar', 'everyone', 'else', 'ascott', 'whose', 'name']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>['bashar', 'cafe', 'kind', 'accommodating', 'made', 'feel', 'welcome', 'needed', 'help', 'many', 'thing', 'came', 'love', 'seeing', 'dietary', 'issue', 'helped']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>['everything', 'good', 'mr', 'bashar', 'restaurant', 'collegues', 'nice', 'servicial', 'food', 'service', 'realy', 'good', 'condition', 'hotel', 'clean', 'confortable', 'recommend', 'hotel', 'tonother', 'peolple']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>['service', 'hotel', 'highly', 'professional', 'food', 'venue', 'security', 'cleaning', 'etc', 'nice', 'sufficient', 'trained', 'staff', 'caring', 'venue', 'attendant', 'mr', 'bashars', 'cooperative']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>['visited', 'ascott', 'residence', 'dhaka', 'dear', 'college', 'purpose', 'vat', 'tax', 'training', 'plan', 'international', 'bangladesh', 'environmental', 'total', 'arrangement', 'hotel', 'good', 'also', 'secured', 'mr', 'bashar', 'team', 'serve', 'treamendous', 'service', 'also']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>['place', 'amaze', 'full', 'energetic', 'people', 'always', 'keen', 'help', 'positive', 'mindset', 'ambience', 'nice', 'greenary', 'around', 'venue', 'give', 'u', 'good', 'timebashar', 'vai', 'good', 'person', 'mr', 'mehedi', 'cordial', 'defenately', 'comeback']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>['excellent', 'support', 'ascott', 'residence', 'meeting', 'room', 'organized', 'mr', 'basar', 'also', 'cordail', 'dealing', 'thp', 'bangladesh', 'pleased', 'service', 'next', 'time', 'referer', 'thank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>['first', 'time', 'visit', 'ascott', 'residence', 'hoteli', 'happy', 'meeting', 'venue', 'serenity', 'banquet', 'hall', 'roof', 'top', 'seminar', 'industriall', 'union', 'orgopen', 'space', 'nice', 'garden', 'venue', 'also', 'well', 'decorated', 'service', 'stuff', 'provide', 'good', 'service', 'specially', 'mr', 'bashar', 'give', 'u', 'remarkable', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>['hotel', 'exciting', 'hospitable', 'service', 'person', 'nice', 'kindful', 'breakfast', 'also', 'good', 'delicios', 'taht', 'like', 'much', 'think', 'come', 'back', 'personel', 'islam', 'good', 'people']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'dhaka', 'provide', 'food', 'giz', 'dhaka', 'office', 'metting', 'food', 'good', 'mr', 'basar', 'give', 'spesal', 'service', 'assisthe', 'take', 'care', 'event', 'giz', 'venuascott', 'hotel', 'wass', 'regularly', 'support', 'event', 'thank', 'mr', 'basar', 'good', 'support']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>['stayed', 'day', 'ascott', 'resident', 'dhakait', 'nice', 'hotelvery', 'security', 'n', 'safety', 'areasroom', 'nice', 'decoratedi', 'enjoyed', 'buffet', 'breakfastfood', 'execilentservice', 'stuff', 'carefullymr', 'basher', 'give', 'u', 'mind', 'blowing', 'servicethanks', 'mr', 'abu', 'bakor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>['pleasure', 'staying', 'brand', 'new', 'property', 'minute', 'walking', 'mall', 'ascott', 'residence', 'nice', 'hotel', 'excellent', 'food', 'service', 'offer', 'complementary', 'fruit', 'chocolate', 'coffee', 'room', 'breakfast', 'good', 'choose', 'indian', 'continental', 'etc', 'also', 'restaurant', 'good', 'reasonably', 'priced', 'overall', 'experience', 'brilliant', 'enjoyed', 'weekend', 'getaway', 'lot', 'definitely', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>['stay', 'ascott', 'residence', 'dhakavery', 'comfortable', 'room', 'nice', 'n', 'enjoyable', 'restaurant', 'decorated', 'wellgood', 'food', 'l', 'enjoy', 'breakfast', 'service', 'stuff', 'good', 'specially', 'mentioned', 'mr', 'basher', 'make', 'easy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>['hotel', 'premise', 'internal', 'ambeiance', 'homelynice', 'friendlyim', 'pleased', 'hospitalitythe', 'food', 'restaurent', 'tasty', 'like', 'home', 'madelot', 'thanks', 'authority', 'employeesmrbasher', 'others']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>['ascott', 'hotel', 'veery', 'goodvery', 'nice', 'placementdinnerlunchbreakfust', 'good', 'satisfaction', 'food', 'service', 'welli', 'happy', 'team', 'satisfaction', 'tnq', 'much', 'mr', 'basar', 'vi', 'ur', 'survice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>['wow', 'delicious', 'lunch', 'hadwe', 'really', 'love', 'ambience', 'nicely', 'table', 'arrangement', 'service', 'teamlocation', 'safe', 'securefood', 'good', 'service', 'team', 'cery', 'helpful', 'always', 'supportive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>['good', 'training', 'venue', 'food', 'accommodation', 'customer', 'service', 'good', 'mr', 'bashar', 'provided', 'good', 'service', 'area', 'safe', 'everyone', 'well', 'behaved', 'thank', 'hospitality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>['visited', 'ascott', 'hotel', 'residence', 'said', 'one', 'night', 'really', 'pleased', 'service', 'food', 'really', 'excellent', 'found', 'nice', 'please', 'meet', 'mr', 'bashar', 'kind', 'hospitality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>['located', 'dhaka', 'city', 'baridhara', 'diplomatic', 'zone', 'really', 'nice', 'hotel', 'stay', 'couple', 'day', 'spand', 'good', 'moment', 'hotel', 'back', 'would', 'like', 'stayspecially', 'thanks', 'front', 'office', 'stuff', 'mehedi', 'shafiq']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>['recently', 'stayed', 'best', 'place', 'stay', 'particularly', 'one', 'staff', 'member', 'made', 'stay', 'truly', 'unforgettable', 'emon', 'true', 'gentleman', 'among', 'hotel', 'staff', 'went', 'coffee', 'gave', 'remarkable', 'service', 'master', 'making', 'coffee', 'displayed', 'best', 'professionalism', 'true', 'gem']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>['recently', 'pleasure', 'staying', 'ascott', 'particularly', 'one', 'exceptional', 'staff', 'member', 'made', 'experience', 'truly', 'unforgettable', 'ashiful', 'emon', 'true', 'gem', 'among', 'hotel', 'staff', 'went', 'beyond', 'ensure', 'need', 'met', 'exceeded', 'ashiful', 'emon', 'displayed', 'remarkable', 'professionalism', 'efficiency']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>['nice', 'hotel', 'dhaka', 'city', 'ascott', 'residence', 'near', 'international', 'airport', 'protocol', 'transport', 'service', 'good', 'durning', 'check', 'time', 'concierge', 'service', 'fantastic', 'well', 'front', 'office', 'friendly', 'attitude', 'smalling', 'face', 'mahedi', 'shadman', 'also', 'restaurant', 'service', 'good', 'food', 'delicious', 'emon', 'maintain', 'proper', 'service', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'good', 'hotel', 'dhaka', 'city', 'stay', 'friend', 'family', 'location', 'safe', 'place', 'baridhara', 'deplomatic', 'zone', 'restaurant', 'service', 'nice', 'also', 'food', 'delicious', 'front', 'office', 'guy', 'mahedi', 'smart', 'deal', 'bashear', 'emon', 'nice', 'support', 'u']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>['visited', 'ascott', 'hotel', 'rasidenc', 'democracy', 'international', 'programe', 'meet', 'many', 'service', 'people', 'verynice', 'specialy', 'mr', 'basher', 'servic', 'man', 'taker', 'care', 'every', 'thing', 'mr', 'emon', 'made', 'nice', 'coffee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>['rofiq', 'cmsd', 'take', 'food', 'service', 'ascott', 'residence', 'dhaka', 'well', 'trained', 'food', 'service', 'man', 'meet', 'name', 'bashar', 'happy', 'take', 'service', 'ascott', 'residence', 'give', 'u', 'nice', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>['coming', 'frequently', 'attend', 'democracy', 'international', 'training', 'really', 'took', 'care', 'u', 'heartfood', 'goodbanquet', 'widewe', 'enjoyed', 'training', 'time', 'herethanks', 'mr', 'bashar', 'kind', 'attentive', 'service', 'also', 'service', 'people', 'also', 'cordial', 'needsi', 'feel', 'like', 'home', 'rooftop', 'outlet', 'really', 'chilling', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>['hotel', 'ascott', 'resistance', 'good', 'stay', 'family', 'employee', 'general', 'familiar', 'behaviour', 'good', 'restaurant', 'food', 'good', 'location', 'nice', 'palace', 'good', 'stay', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>['enjoyed', 'pleasant', 'stay', 'great', 'guest', 'experience', 'hotel', 'staff', 'great', 'kind', 'polite', 'helpful', 'special', 'thanks', 'sonia', 'kindness', 'caring', 'great', 'location', 'nice', 'ambience', 'comfortable', 'room']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>['great', 'experience', 'hotel', 'room', 'service', 'good', 'aslo', 'breakfast', 'great', 'fav', 'pickup', 'drown', 'service', 'available', 'great', 'experience', 'hotel', 'hotel', 'staff', 'mahedi', 'rashed', 'great', 'person', 'good', 'behavior', 'stay', 'hat', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>['stayed', 'many', 'time', 'ascott', 'residence', 'whenever', 'came', 'felt', 'second', 'home', 'staff', 'cooperative', 'attentive', 'room', 'clean', 'always', 'took', 'care', 'preference']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>['third', 'visit', 'ascott', 'residence', 'dhaka', 'arrived', 'weather', 'staff', 'looked', 'genuine', 'care', 'zannat', 'front', 'desk', 'helped', 'get', 'medication', 'sonia', 'restaurant', 'made', 'sure', 'ate', 'well', 'hope', 'visit', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>['stayed', 'one', 'night', 'ascott', 'residence', 'dhaka', 'truly', 'enjoyed', 'experience', 'stayed', 'suite', 'found', 'wellappointed', 'eight', 'bottle', 'water', 'plate', 'fresh', 'fruit', 'waiting', 'u', 'coffee', 'tea', 'kitchenette', 'bathroom', 'product', 'would', 'need', 'comb', 'toothbrush', 'ample', 'product', 'cable', 'room', 'nice', 'movie', 'news', 'sport', 'channel', 'english', 'family', 'watched', 'tennis', 'listed', 'music', 'vh', 'caught', 'bit', 'movie', 'hbo', 'bed', 'bit', 'hard', 'heard', 'normal', 'bangladesh', 'ample', 'pillow', 'cold', 'ac', 'certainly', 'made', 'sleeping', 'overall', 'pleasant', 'breakfast', 'included', 'stay', 'yummy', 'typical', 'western', 'breakfast']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>['nice', 'place', 'meeting', 'good', 'hospitality', 'best', 'food', 'hotel', 'lacation', 'really', 'attactive', 'good', 'location', 'ensure', 'easy', 'moving', 'various', 'location', 'dhaka', 'city', 'safety', 'concern', 'found', 'safety']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>['spent', 'week', 'ascott', 'residence', 'extremely', 'pleased', 'stay', 'room', 'comfortable', 'clean', 'location', 'ideal', 'youre', 'looking', 'peace', 'quiet', 'hard', 'day', 'work', 'there', 'always', 'little', 'attention', 'pillow', 'bedtime', 'lovely', 'every', 'employee', 'adorable', 'caring', 'security', 'guard', 'housekeeper', 'reception', 'restaurant', 'thanks', 'employee', 'kindness', 'special', 'mention', 'masud', 'harun', 'mahedi', 'hoping', 'see', 'one', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>['hotel', 'comfortableroom', 'interior', 'goodfood', 'delicious', 'variety', 'option', 'buffet', 'breakfastfood', 'beverage', 'service', 'team', 'caring', 'mrmehedi', 'manage', 'team', 'wellwell', 'trained', 'took', 'care', 'every', 'aspect']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>['second', 'time', 'im', 'coming', 'dhaka', 'im', 'interested', 'service', 'good', 'people', 'friendly', 'moving', 'anywhere', 'relative', 'ease', 'mean', 'featured', 'food', 'also', 'quite', 'suitable', 'thank', 'friend', 'mr', 'islam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>['wonderful', 'hotellocated', 'quite', 'area', 'safe', 'secure', 'enjoyed', 'one', 'week', 'staybreakfast', 'good', 'lot', 'local', 'selection', 'therethanks', 'restaurant', 'associate', 'mr', 'masudbasharand', 'othersthey', 'took', 'care', 'group', 'nice', 'hospitality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'residence', 'four', 'night', 'june', 'nd', 'visit', 'dhaka', 'general', 'hotel', 'staff', 'friendly', 'especially', 'abdullah', 'front', 'office', 'dept', 'room', 'clean', 'comfortable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>['best', 'tour', 'ever', 'democracy', 'international', 'hospitality', 'hotel', 'best', 'city', 'would', 'recommend', 'visit', 'anyone', 'seeking', 'warm', 'hospitality', 'specially', 'would', 'like', 'mention', 'mrandullahshafiqul', 'osman', 'extra', 'ordinary', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>['first', 'time', 'visit', 'bangladesh', 'im', 'much', 'happy', 'booked', 'ascott', 'residence', 'everyone', 'much', 'helpful', 'front', 'office', 'particularly', 'warm', 'hospitable', 'service', 'specially', 'mrabdullah', 'nice', 'stay', 'first', 'day', 'last', 'day', 'really', 'appreciate', 'everything', 'definitely', 'ill', 'make', 'plan', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>['hotel', 'great', 'wonderfull', 'staff', 'accomodate', 'request', 'considerate', 'helpful', 'room', 'clean', 'well', 'maintained', 'right', 'amount', 'furnishing', 'good', 'quality', 'bedding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>['staff', 'amazing', 'hit', 'islam', 'he', 'awesome', 'care', 'guest', 'good', 'food', 'good', 'coffee', 'fresh', 'food', 'staff', 'really', 'care', 'well', 'always', 'available', 'help', 'must', 'visit', 'site', 'disappointed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'abdullah', 'alfahat', 'helpful', 'cooperative', 'housekeeping', 'good', 'asked', 'evening', 'room', 'cleaning', 'need', 'toincrease', 'indian', 'vegetrian', 'food', 'option', 'helpful', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>['room', 'nice', 'comfy', 'good', 'hospitality', 'hotel', 'staff', 'kudos', 'mr', 'mahedi', 'keeping', 'u', 'checking', 'checking', 'smooth', 'location', 'strategic', 'lot', 'food']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'nice', 'room', 'hotel', 'personnel', 'friendly', 'polite', 'time', 'stayed', 'overnight', 'birthday', 'hotel', 'staff', 'surprised', 'beautiful', 'tasty', 'chocolate', 'cake', 'checkout', 'date', 'finished', 'breakfast', 'really', 'feel', 'thankful', 'big', 'surprise', 'made', 'feel', 'special', 'wonderful', 'birthday', 'surely', 'stay', 'recommend', 'colleague', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>['visited', 'day', 'back', 'simply', 'one', 'word', 'service', 'outstanding', 'atmosphere', 'lobby', 'restaurant', 'nice', 'salon', 'top', 'hotel', 'staff', 'well', 'trained', 'supportive', 'cooperative']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>['mahedi', 'service', 'guy', 'good', 'man', 'ready', 'help', 'everything', 'requested', 'hotel', 'provided', 'complimentary', 'transportation', 'airport', 'downtown', 'informed', 'advance', 'feel', 'safe', 'comfortable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'stay', 'dhaka', 'room', 'clean', 'comfortable', 'beautiful', 'menu', 'good', 'food', 'staff', 'friendly', 'supportfully', 'good', 'service', 'safe', 'stay', 'good', 'place', 'guy', 'stay', 'mahedi', 'rashed', 'good', 'friendly', 'helpfull', 'support', 'somuch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'friendly', 'cooperative', 'beginning', 'end', 'experience', 'good', 'online', 'booking', 'airport', 'protocol', 'manager', 'mr', 'shafiq', 'restaurant', 'manager', 'm', 'sonia', 'front', 'desk', 'staff', 'even', 'driver', 'know', 'good', 'hospitality', 'room', 'neat', 'clean', 'breakfast', 'upto', 'mark', 'thanks', 'zannat', 'help', 'online', 'booking', 'really', 'great', 'pleasure', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>['visited', 'overthere', 'month', 'partnervery', 'nice', 'hotel', 'located', 'calm', 'quite', 'areabudget', 'friendly', 'family', 'friendly', 'aswellfood', 'beverage', 'service', 'staff', 'friendly', 'well', 'manneredwill', 'visit', 'future', 'also']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>['nice', 'hotel', 'staff', 'super', 'friendly', 'give', 'lot', 'help', 'advice', 'stay', 'cozy', 'room', 'good', 'service', 'pick', 'transfer', 'airport', 'event', 'late', 'time', 'back', 'next', 'time']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>['service', 'food', 'good', 'highly', 'recommend', 'place', 'cuppacino', 'one', 'best', 'dhaka', 'citytheir', 'staff', 'cooperative', 'attentive', 'guesti', 'try', 'come', 'test', 'delicious', 'food']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>['true', 'bangladeshi', 'hospitality', 'room', 'clean', 'breakfast', 'good', 'room', 'service', 'extremely', 'satisfying', 'staff', 'always', 'smiling', 'islam', 'jashan', 'professional', 'greet', 'every', 'time', 'see', 'problem', 'mosquito', 'dont', 'forget', 'mosquitoe', 'repellent']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'excellent', 'staff', 'food', 'sonia', 'romana', 'masood', 'warm', 'welcoming', 'attentive', 'every', 'need', 'staff', 'hotel', 'restaurant', 'housekeeping', 'lovely', 'id', 'recommend', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>['great', 'atmosphere', 'great', 'service', 'skeptical', 'first', 'provided', 'patience', 'understanding', 'every', 'whim', 'location', 'great', 'quiet', 'home', 'away', 'home', 'feel', 'need', 'stay', 'diplomatic', 'zone', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>['fine', 'housekeeping', 'need', 'improvement', 'room', 'clean', 'basic', 'item', 'staff', 'friendly', 'helpful', 'restaurant', 'staff', 'attentive', 'food', 'quality', 'average', 'price', 'reasonableneighbourhood', 'safe']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>['friendly', 'helpfull', 'staf', 'good', 'place', 'stay', 'food', 'restaurant', 'good', 'cater', 'need', 'breakfast', 'good', 'variety', 'great', 'time', 'staying', 'located', 'clean', 'safe', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>['mr', 'tarik', 'team', 'made', 'feel', 'home', 'start', 'always', 'enjoyed', 'walking', 'resident', 'lush', 'residential', 'street', 'hotel', 'often', 'dined', 'friendly', 'authentic', 'staff', 'undoubtably', 'best', 'coffee', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>['staff', 'welcoming', 'hospitable', 'friendly', 'mr', 'tarik', 'made', 'feel', 'right', 'home', 'mr', 'tarik', 'actively', 'engaged', 'guest', 'ensures', 'comfort', 'extend', 'personal', 'thank', 'mr', 'tarik', 'genuine', 'appreciation', 'entire', 'staff']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>['love', 'hospitality', 'short', 'stay', 'moemoral', 'one', 'people', 'good', 'service', 'special', 'thanks', 'hasain', 'sakib', 'mahedi', 'support', 'friendliness', 'along', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>['kind', 'staff', 'clean', 'room', 'quiet', 'location', 'take', 'min', 'gulshan', 'foot', 'also', 'ride', 'rikisha', 'well', 'restaurant', 'around', 'hotel', 'ordered', 'delivery', 'apps', 'pathao', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>['hospitable', 'well', 'furnished', 'room', 'staff', 'friendly', 'accommodating', 'absolutely', 'complaint', 'albeit', 'location', 'prove', 'bit', 'problem', 'term', 'finding', 'atm', 'transport', 'etc']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'definitely', 'stay', 'serve', 'good', 'food', 'drink', 'hospitality', 'staff', 'visit', 'dhaka', 'strongly', 'recommend', 'stay', 'ascott', 'residence', 'also', 'recommend', 'another', 'group', 'hotel', 'ascott', 'palace']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>['good', 'atmosphere', 'good', 'variety', 'choice', 'breakfast', 'buffet', 'room', 'interior', 'nice', 'cozy', 'clean', 'also', 'lot', 'thanks', 'friendly', 'greeting', 'service', 'mr', 'mahedi', 'well', 'ther', 'staff', 'member']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>['ascott', 'hotel', 'one', 'favorite', 'hotel', 'bangladesh', 'visited', 'wife', 'lunch', 'quality', 'food', 'service', 'really', 'good', 'mr', 'hasan', 'serve', 'u', 'super', 'star', 'also', 'mr', 'harun', 'mr', 'g', 'mosharraf', 'hossain', 'khoka', 'running', 'hotel', 'long', 'time', 'good', 'human', 'idol', 'bangladesh', 'hotel', 'industry', 'thank', 'mr', 'khoka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'greeted', 'smile', 'delicious', 'mango', 'juice', 'bit', 'sweet', 'id', 'like', 'soda', 'possible', 'feel', 'safe', 'security', 'staff', 'hotel', 'properly', 'inspects', 'luggage', 'would', 'better', 'hotel', 'bar', 'could', 'drink', 'alcohol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>['nice', 'experience', 'great', 'staff', 'good', 'vibe', 'hotel', 'nice', 'location', 'room', 'good', 'service', 'good', 'room', 'needed', 'business', 'trip', 'breakfast', 'fine', 'good', 'experience', 'dhaka', 'friendly', 'staff', 'well', 'service', 'oriented']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'efficient', 'clean', 'zanjar', 'sonia', 'staff', 'knew', 'job', 'pick', 'airport', 'work', 'well', 'leave', 'plenty', 'time', 'get', 'airport', 'traffic', 'bad', 'unfortunately', 'much', 'airport', 'early']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'nice', 'clean', 'staff', 'friendly', 'accommodating', 'pleasant', 'productive', 'visit', 'intend', 'staying', 'future', 'came', 'three', 'day', 'explore', 'dhaka', 'tourist', 'also', 'checkin', 'regularly', 'work', 'found', 'internet', 'fast', 'reliable', 'issue', 'getting', 'thing', 'done', 'knowledge', 'city', 'isnt', 'deep', 'cant', 'imagine', 'better', 'location', 'ascotts', 'quiet', 'uncrowded', 'still', 'close', 'center', 'highly', 'recommended', 'either', 'tourism', 'business', 'purpose']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>['finding', 'hotel', 'fully', 'booked', 'due', 'postcovid', 'booming', 'reluctantly', 'stayed', 'hotel', 'two', 'week', 'however', 'feel', 'management', 'changed', 'significantly', 'since', 'pandemic', 'basic', 'training', 'hotel', 'staff', 'insufficient', 'disturbed', 'stay', 'instance', 'staff', 'loudly', 'calling', 'name', 'restaurant', 'unstable', 'internet', 'connection', 'resulting', 'repeated', 'knocking', 'door', 'phone', 'call', 'asking', 'everything', 'okay', 'made', 'complaint', 'three', 'hour', 'prior', 'lack', 'basic', 'training', 'hotel', 'employee', 'greatly', 'affected', 'sleep', 'quality', 'choosing', 'another', 'hotel', 'would', 'provide', 'secure', 'comfortable', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>['team', 'good', 'working', 'everything', 'care', 'good', 'communicationsafisfy', 'internet', 'connection', 'good', 'food', 'good', 'house', 'keeping']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>['would', 'like', 'complement', 'staff', 'professional', 'smile', 'thier', 'faceshave', 'impressive', 'thier', 'servicesi', 'would', 'like', 'visit', 'specially', 'like', 'mention', 'staff', 'name', 'm', 'sonia', 'mr', 'masud', 'mr', 'mahmudul', 'hasan', 'house', 'keeping']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>['service', 'excellent', 'respect', 'area', 'zannat', 'hassan', 'habib', 'reception', 'shawan', 'airport', 'transfer', 'restaurant', 'recommend', 'hotel', 'quite', 'highly', 'service', 'smile', 'throughout', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>['feel', 'like', 'back', 'home', 'good', 'service', 'mind', 'taking', 'care', 'well', 'mr', 'mahedi', 'crew', 'good', 'test', 'food', 'especially', 'option', 'number', 'sweet', 'sour', 'soup', 'room', 'also', 'clean']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>['quiet', 'good', 'food', 'drink', 'nice', 'receptionist', 'friendly', 'good', 'support', 'abdulla', 'issued', 'transport', 'hotel', 'airport', 'traffic', 'jam', 'worry', 'late', 'flight']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'hmm', 'last', 'time', 'stay', 'good', 'also', 'food', 'nice', 'today', 'airport', 'potocal', 'service', 'fine', 'check', 'nice', 'mr', 'sakib', 'good', 'person', 'also', 'mr', 'mahedi', 'fast', 'come', 'room', 'mention', 'everything', 'number']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'good', 'crew', 'specially', 'mrislam', 'good', 'attitudegood', 'foodgood', 'handling', 'reception', 'crew', 'good', 'attitude', 'restaurant', 'crew', 'good', 'support', 'driver', 'keep', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>['hotel', 'nice', 'good', 'everybody', 'behaviour', 'really', 'fantastic', 'bellboy', 'mahedi', 'smart', 'chuck', 'also', 'description', 'hotel', 'room', 'security', 'also', 'fine', 'security', 'everything', 'thanks', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'attentive', 'helpful', 'particularly', 'zannat', 'front', 'desk', 'made', 'gracious', 'effort', 'provide', 'timely', 'pertinent', 'assistance', 'room', 'ample', 'neat', 'cozy', 'hotel', 'location', 'unbeatable', 'would', 'recommend', 'stay', 'ascott', 'whomever', 'visiting', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>['hotel', 'well', 'situated', 'staff', 'friendly', 'welcoming', 'mr', 'mahedi', 'm', 'jannat', 'helpful', 'u', 'provided', 'ample', 'attention', 'support', 'u', 'guest', 'overall', 'happy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>['hotel', 'nice', 'clean', 'expectation', 'service', 'also', 'great', 'would', 'nice', 'place', 'rest', 'bussiness', 'mahedi', 'abdullha', 'cool', 'serving', 'arrive', 'alot', 'supporting', 'ask', 'help']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>['good', 'mahadi', 'san', 'bellboy', 'kind', 'explain', 'many', 'service', 'hotel', 'politely', 'explained', 'service', 'cost', 'money', 'free', 'would', 'like', 'come', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>['clean', 'room', 'delicious', 'food', 'excellent', 'service', 'wide', 'spread', 'selection', 'breakfast', 'lunch', 'dinner', 'welcome', 'juice', 'tasty', 'shout', 'abdullah', 'shakib', 'islam', 'star', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>['great', 'service', 'good', 'food', 'many', 'choice', 'good', 'vibe', 'peaceful', 'place', 'surrounding', 'comfort', 'room', 'friendly', 'employee', 'good', 'service', 'receptionist', 'abdullah', 'bellboy', 'islam', 'keep', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>['front', 'desk', 'accommodating', 'room', 'service', 'helpful', 'room', 'clean', 'tidy', 'food', 'good', 'different', 'item', 'prepared', 'appreciated', 'complimentary', 'item', 'provided', 'great', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>['service', 'excellent', 'feel', 'comfort', 'stay', 'always', 'room', 'service', 'found', 'excellent', 'mr', 'mahedi', 'behaviour', 'good', 'enough', 'cooperative', 'fully', 'satisfy', 'service', 'future', 'want', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>['everyone', 'hospitable', 'helpful', 'breakfast', 'good', 'japanese', 'seaweed', 'roll', 'available', 'room', 'spacious', 'enough', 'good', 'internet', 'speed', 'bathroom', 'good', 'hot', 'water', 'mr', 'abdullah', 'also', 'helpful', 'checkout', 'airport', 'transfer', 'service', 'smooth']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>['though', 'first', 'visit', 'dhaka', 'found', 'staff', 'cooperative', 'specially', 'mr', 'reaz', 'helped', 'lot', 'regarding', 'laundryroom', 'clean', 'well', 'food', 'delicious', 'must', 'recommend', 'hotel', 'inform', 'company', 'accommodate', 'next', 'travel', 'back', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>['good', 'serviced', 'andullah', 'teamdinner', 'breakfast', 'great', 'test', 'deliciouswe', 'back', 'ascott', 'hotel', 'alway', 'bast', 'team', 'transition', 'visit', 'dhaka', 'bangladesh', 'thank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>['nice', 'stay', 'communication', 'good', 'would', 'like', 'stay', 'visit', 'bangladesh', 'thanks', 'mr', 'abdullah', 'mr', 'islam', 'better', 'service', 'breakfast', 'good', 'recommend', 'visit', 'anyone', 'want', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>['mr', 'abdullah', 'mr', 'habib', 'really', 'helpful', 'stay', 'nice', 'people', 'always', 'talking', 'asking', 'slept', 'well', 'hotel', 'location', 'good', 'accessible', 'good', 'neighborhood', 'truly', 'recommended', 'hotel', 'anyone', 'visiting', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>['really', 'nice', 'stay', 'room', 'super', 'cleaned', 'friendly', 'staff', 'emplacement', 'hotel', 'really', 'convenient', 'service', 'available', 'hotel', 'good', 'service', 'made', 'feel', 'home', 'definitely', 'recommend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>['stayed', 'night', 'ascott', 'residence', 'nov', 'stayed', 'another', 'nearby', 'hotel', 'right', 'moving', 'ascott', 'ill', 'say', 'ascott', 'excellent', 'room', 'beautiful', 'clean', 'sheet', 'nice', 'aircon', 'great', 'toilet', 'importantly', 'staff', 'friendly', 'professional', 'security', 'personnel', 'bellboy', 'right', 'manager', 'special', 'shoutout', 'miss', 'joanna', 'kind', 'assistance', 'making', 'stay', 'memorable', 'one', 'habibur', 'excellent', 'service', 'friendliness', 'breakfast']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>['warm', 'welcoming', 'n', 'staff', 'helpful', 'help', 'u', 'n', 'every', 'way', 'specially', 'sonia', 'break', 'fast', 'desk', 'really', 'helped', 'u', 'language', 'issue', 'facing', 'badly', 'staff', 'made', 'smooth', 'u', 'n', 'guided', 'u']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>['st', 'time', 'staying', 'year', 'say', 'people', 'remember', 'airport', 'collection', 'reservation', 'even', 'mohammed', 'ali', 'boy', 'restaurant', 'good', 'crew', 'hour', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>['stayed', 'day', 'nice', 'hotel', 'quiet', 'surroundings', 'baridhara', 'room', 'clean', 'comfortable', 'staff', 'friendly', 'service', 'good', 'satisfied', 'would', 'happily', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>['good', 'place', 'sleepvery', 'relaxing', 'placehave', 'good', 'food', 'also', 'good', 'serviceand', 'good', 'workerit', 'also', 'good', 'viewif', 'need', 'something', 'provide', 'youto', 'many', 'food', 'choosekeep', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>['friendly', 'staff', 'make', 'stay', 'memorable', 'one', 'every', 'time', 'thanks', 'mr', 'abdullah', 'mr', 'islam', 'sheik', 'though', 'plan', 'back', 'dhaka', 'moment', 'surely', 'stay', 'ascott', 'residence', 'next', 'time']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>['everything', 'good', 'staff', 'hospitality', 'cleanlinessthe', 'quality', 'servicethe', 'restaurant', 'staff', 'friendlythey', 'make', 'feel', 'special', 'especially', 'sonia', 'stay', 'every', 'time', 'visit', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>['good', 'hospitally', 'zannat', 'usman', 'bhai', 'maruf', 'team', 'member', 'like', 'stay', 'hotel', 'future', 'recommended', 'tou', 'stay', 'hotel', 'like', 'food', 'gym', 'place', 'also', 'nice', 'enjoy', 'karaoke', 'time', 'night', 'roof', 'top']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>['best', 'hospitality', 'ascott', 'hotel', 'dhaka', 'appreciate', 'welcome', 'take', 'care', 'reception', 'senior', 'staff', 'name', 'jannatthanks', 'jannat', 'wonderful', 'hospitality', 'hope', 'visit', 'ascott', 'hotel', 'next', 'visit', 'november', 'happy', 'delighted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>['confined', 'stay', 'allowed', 'hotel', 'due', 'security', 'purpose', 'ascott', 'great', 'choice', 'among', 'stayed', 'two', 'month', 'staff', 'well', 'trained', 'highly', 'hospitality', 'minded', 'one', 'thing', 'missing', 'small', 'kitchen', 'facility', 'room', 'long', 'staying', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>['restaurant', 'team', 'welcoming', 'attentive', 'friendly', 'every', 'day', 'friendly', 'greeting', 'sonia', 'team', 'suite', 'room', 'well', 'provided', 'facility', 'hard', 'find', 'dhaka', 'perfect', 'extended', 'stay', 'baridhara', 'quiet', 'neighbourhood', 'park', 'possible', 'walk', 'around', 'freely', 'park', 'small', 'minimart', 'coffee', 'shop']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>['staff', 'super', 'friendly', 'especially', 'tarik', 'sonia', 'hasan', 'recommend', 'stay', 'tarik', 'professional', 'keen', 'help', 'guest', 'im', 'satisfied', 'definitely', 'come', 'next', 'trip', 'however', 'room', 'improved', 'room', 'need', 'updated', 'accordingly', 'modern', 'facility', 'employee', 'trained', 'accordingly', 'international', 'standard']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>['satisfied', 'service', 'ascott', 'palace', 'management', 'specially', 'bashar', 'jubayer', 'always', 'therefore', 'well', 'mannered', 'cooperative', 'behavior', 'food', 'quality', 'upto', 'mark', 'per', 'requirement']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>['comfortable', 'quiet', 'hotel', 'enough', 'amenity', 'equipped', 'request', 'problem', 'promptly', 'addressed', 'stay', 'bit', 'long', 'month', 'stay', 'quite', 'comfortable', 'staff', 'friendly', 'helpful', 'mohhamad', 'front', 'desk', 'sonia', 'restaurant', 'tarik', 'officer', 'staff', 'front', 'desk', 'bellboy', 'housekeeping', 'restaurant', 'security', 'willing', 'help', 'stay', 'great', 'one', 'took', 'room', 'service', 'taste', 'nice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>['pleasant', 'time', 'ascott', 'residence', 'traveled', 'bangladesh', 'husband', 'two', 'child', 'long', 'time', 'concerned', 'safety', 'mr', 'md', 'ibrahim', 'reservation', 'supervisor', 'assured', 'ascott', 'residence', 'safe', 'place', 'felt', 'safe', 'throughout', 'stay', 'mr', 'shafiq', 'airport', 'protocol', 'officer', 'patiently', 'waiting', 'u', 'arrived', 'm', 'sonia', 'greeted', 'u', 'every', 'morning', 'breakfast', 'made', 'sure', 'everything', 'needed', 'packed', 'bakery', 'u', 'went', 'trip', 'day', 'leaving', 'missed', 'breakfast', 'delightful', 'see', 'every', 'morning', 'staff', 'abu', 'bakor', 'habib', 'helpful', 'overall', 'every', 'staff', 'met', 'nice', 'made', 'stay', 'comfortable', 'business', 'suite', 'really', 'liked']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>['staying', 'hotel', 'since', 'last', 'month', 'staff', 'friendly', 'professional', 'always', 'ready', 'assistthe', 'room', 'clean', 'large', 'lovely', 'decor', 'cushy', 'bed', 'pure', 'white', 'comfortable', 'food', 'goodfreshtasty', 'healthyrestorant', 'staff', 'polite', 'radiant', 'made', 'feel', 'home', 'improve', 'laundry', 'service', 'time', 'remove', 'stain', 'properly', 'highly', 'recommend', 'hotel', 'came', 'area', 'would', 'like', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>['great', 'felling', 'hospitality', 'next', 'level', 'feel', 'like', 'home', 'staff', 'pleasant', 'need', 'mention', 'person', 'interact', 'first', 'mr', 'tarik', 'miss', 'soniya', 'pleasure', 'meeting', 'lot', 'love', 'india']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>['first', 'visit', 'dhaka', 'stayed', 'ascott', 'hotel', 'best', 'word', 'sum', 'experience', 'would', 'fantastic', 'hotel', 'everyone', 'welltrained', 'friendly', 'eager', 'best', 'meet', 'need', 'b', 'hotel', 'located', 'dhaka', 'affluent', 'region', 'diplomatic', 'zone', 'baridhara', 'calm', 'wellkept', 'area', 'belies', 'image', 'city', 'mind', 'c', 'im', 'also', 'pleased', 'restaurant', 'food', 'quality', 'staff', 'salman', 'tarik', 'bhai', 'also', 'happens', 'coowner', 'pr', 'head', 'tarik', 'fantastic', 'person', 'ive', 'gained', 'much', 'knowledge', 'bangladesh', 'culture', 'anticipate', 'returning']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>['hi', 'mahmud', 'russel', 'nice', 'time', 'spent', 'hotel', 'stayed', 'day', 'admirable', 'polite', 'human', 'entrance', 'manager', 'service', 'staff', 'etc', 'really', 'team', 'performing', 'good', 'mrrobin', 'captain', 'great', 'job', 'visit', 'n', 'spacious', 'room', 'hygienic', 'well', 'maintained', 'buffet', 'superb', 'god', 'bless', 'guy', 'serve']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'week', 'stay', 'great', 'staff', 'warm', 'welcoming', 'special', 'thanks', 'mr', 'tarik', 'great', 'management', 'guest', 'relation', 'hotel', 'prime', 'location', 'good', 'security', 'safe', 'surroundings', 'lake', 'garden', 'nearby', 'relaxing', 'jogging', 'breakfast', 'spread', 'food', 'also', 'nice', 'overall', 'good', 'experience', 'would', 'recommend', 'family', 'well', 'business', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>['place', 'comfortable', 'stuff', 'good', 'sonia', 'nice', 'employer', 'always', 'ready', 'help', 'support', 'food', 'goodthe', 'location', 'good', 'room', 'gooda', 'good', 'suggestion', 'stay', 'come', 'business', 'end', 'day', 'relax', 'noise', 'calm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>['staying', 'hotel', 'month', 'everyone', 'friendly', 'comfortable', 'try', 'remember', 'room', 'number', 'food', 'preference', 'longstay', 'guest', 'try', 'serve', 'u', 'comfortably', 'come', 'breakfast', 'sonia', 'hasan', 'particular', 'great', 'help', 'every', 'morning']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>['stay', 'ascott', 'warm', 'staff', 'courteous', 'location', 'baridhara', 'amazing', 'quiet', 'spl', 'mention', 'mr', 'tariq', 'helped', 'hotel', 'formality', 'served', 'smile', 'looking', 'forward', 'travelling']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>['great', 'hotelgood', 'support', 'service', 'staff', 'thanks', 'sonia', 'hasan', 'good', 'service', 'good', 'delicious', 'food', 'hope', 'back', 'future', 'looking', 'good', 'hotel', 'would', 'recommend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>['room', 'people', 'good', 'best', 'place', 'stay', 'transit', 'baridhara', 'area', 'room', 'tidy', 'food', 'restoran', 'breakfast', 'exelance', 'room', 'boy', 'sheikh', 'good', 'bahaviour', 'fahad', 'resiptionist', 'good', 'personality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'friendly', 'staff', 'best', 'service', 'mr', 'basher', 'host', 'week', 'job', 'full', 'passion', 'greatful', 'collegues', 'also', 'enjoyed', 'dinner', 'rooftop', 'restaurant', 'breakfast', 'delicious', 'recommend', 'hotel', 'tourist', 'business', 'people', 'located', 'safe', 'part', 'town', 'next', 'ambassies', 'family', 'van', 'haaren', 'netherlands']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'time', 'staff', 'hotel', 'alway', 'help', 'geust', 'situation', 'guest', 'really', 'appreciated', 'crew', 'hotel', 'side', 'handoff', 'hotel', 'staff', 'front', 'office']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>['mr', 'mahmudol', 'hasan', 'warm', 'sophisticated', 'able', 'hospitality', 'professional', 'recommend', 'highly', 'hospitality', 'especially', 'room', 'attending', 'service', 'behavior', 'punctuality', 'approach', 'work', 'comfortable', 'effective']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>['staff', 'friendly', 'premise', 'always', 'clean', 'well', 'maintainedthe', 'front', 'office', 'department', 'supportive', 'especially', 'mr', 'fahad', 'always', 'looking', 'best', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>['overall', 'service', 'great', 'satisfied', 'hospitali', 'staff', 'specifically', 'pleased', 'service', 'm', 'sonia', 'mr', 'habibur', 'efficient', 'especially', 'm', 'sonia', 'warm', 'friendly', 'awesome', 'experience', 'far']</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>['overall', 'service', 'great', 'satisfied', 'hospitality', 'staff', 'specifically', 'pleased', 'service', 'mr', 'abul', 'bashar', 'mr', 'abu', 'bakor', 'efficient', 'great', 'experience', 'far']</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>['someone', 'come', 'dhaka', 'often', 'found', 'perfect', 'quite', 'place', 'stay', 'ascott', 'residence', 'baridhara', 'road', 'like', 'hotel', 'feel', 'safe', 'also', 'relaxed', 'rejuvenated', 'spending', 'day', 'noisy', 'dusty', 'dhaka', 'coming', 'back', 'ascott', 'residence', 'make', 'feel', 'like', 'im', 'paradise', 'similar', 'traveller', 'coming', 'across', 'oasis', 'long', 'journey', 'desert', 'clean', 'room', 'friendly', 'staff', 'always', 'willing', 'help', 'assist', 'good', 'quality', 'food', 'many', 'cuisine', 'stayed', 'many', 'hotel', 'gulshan', 'banani', 'baridhara', 'amongst', 'would', 'choose', 'ascott', 'residence', 'best', 'dollar', 'value']</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>['today', 'chose', 'special', 'menu', 'seafood', 'plate', 'hotel', 'restaurant', 'food', 'tasty', 'guidance', 'service', 'provided', 'support', 'staff', 'mohammad', 'ali', 'ana', 'emon', 'excellent', 'thank', 'continued', 'support', 'stay', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>['quiet', 'cheerful', 'place', 'sonia', 'dining', 'room', 'fantastic', 'folk', 'front', 'desk', 'neighborhood', 'walkable', 'rooftop', 'terrace', 'serene', 'glad', 'stayed', 'four', 'day', 'would', 'come', 'back', 'ascott', 'residence', 'heartbeat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>['everything', 'smooth', 'every', 'day', 'newspaper', 'provided', 'vey', 'comfortable', 'enjoyed', 'nice', 'airport', 'shuttle', 'service', 'come', 'back', 'thank', 'mr', 'tarik', 'sometimes', 'enjoy', 'room', 'upgrade', 'free']</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>['wonderful', 'ambiance', 'friendly', 'staff', 'beautiful', 'room', 'truly', 'pleasure', 'stay', 'ascott', 'residence', 'would', 'highly', 'recommend', 'hotel', 'business', 'traveller', 'definitely', 'return', 'future', 'thank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'excellent', 'hospitality', 'front', 'office', 'dept', 'specially', 'fahad', 'behivors', 'amazing', 'servive', 'good', 'restaurant', 'food', 'good', 'thanks', 'regard', 'jan', 'fredrik', 'pattikawa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>['undoubtedly', 'place', 'love', 'stay', 'staying', 'dhaka', 'let', 'business', 'trip', 'personal', 'one', 'restaurant', 'guy', 'serf', 'exact', 'one', 'asked', 'behavior', 'allows', 'feel', 'cozy', 'experience', 'best', 'suited', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>['clean', 'room', 'friendly', 'staff', 'breakfast', 'also', 'nice', 'allowed', 'staying', 'u', 'move', 'airport', 'free', 'charge', 'thank', 'mahmud', 'definitely', 'stay', 'location', 'also', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>['experienced', 'good', 'stay', 'respectable', 'staff', 'selected', 'hotel', 'visiting', 'hotel', 'dhaka', 'tested', 'hotel', 'country', 'best', 'comparison', 'price', 'location', 'good', 'calm', 'suitable', 'especially', 'working', 'embassy', 'area', 'especial', 'thanks', 'sonia', 'nipune', 'managing', 'restaurant', 'perfectly', 'beautiful', 'given', 'flower', 'everybody', 'tried', 'best', 'enjoy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'friendly', 'helpfully', 'breakfast', 'menu', 'always', 'fresh', 'room', 'big', 'clean', 'tv', 'channel', 'location', 'barridhara', 'close', 'jamuna', 'shoping', 'mall', 'office', 'ghulsan', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>['bourique', 'style', 'hotel', 'friendly', 'staff', 'nice', 'clean', 'silent', 'room', 'located', 'secluded', 'calm', 'baridhara', 'diplomat', 'district', 'close', 'airport', 'downtown', 'perfect', 'three', 'day', 'stay', 'busy', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>['ascott', 'hotel', 'good', 'option', 'kind', 'traveler', 'staff', 'nice', 'helpful', 'thank', 'much', 'mr', 'robin', 'front', 'desk', 'efficient', 'friendly', 'also', 'mr', 'sohagh', 'time', 'friendly', 'also', 'helping', 'carrying', 'luggage', 'strongly', 'recommend', 'ascott']</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>['surprising', 'find', 'hotel', 'busy', 'crowded', 'city', 'dhaka', 'find', 'safe', 'environment', 'friendly', 'hotel', 'enjoy', 'restful', 'stay', 'eat', 'well', 'desirable', 'restaurant', 'served', 'great', 'care', 'good', 'staff', 'basher', 'arfan', 'emon']</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>['place', 'gemfrom', 'receptionist', 'staffsthey', 'friendly', 'felt', 'definitely', 'homemr', 'harun', 'fb', 'royal', 'treat', 'always', 'make', 'sure', 'baby', 'food', 'also', 'ready', 'dine', 'everydaymr', 'anwar', 'housekeeping', 'dept', 'helpful', 'making', 'sure', 'room', 'always', 'clean', 'special', 'thanks', 'mr', 'habibur', 'concierge', 'taking', 'care', 'belonging', 'definitely', 'm', 'zannat', 'beloved', 'receptionistshe', 'helped', 'lot', 'stay', 'herethese', 'experience', 'truly', 'memorable', 'u', 'whole', 'family', 'definitely', 'visit', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>['fill', 'comfortable', 'service', 'good', 'enough', 'staff', 'always', 'served', 'smiley', 'face', 'recipe', 'offered', 'guest', 'healthy', 'try', 'meet', 'customer', 'requirement', 'even', 'try', 'level', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'nice', 'quiet', 'clean', 'hotel', 'service', 'excellent', 'mr', 'basher', 'mr', 'shahadad', 'extremely', 'helpful', 'throughout', 'stay', 'would', 'definitely', 'recommend', 'guest', 'travelling', 'dhaka', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>['every', 'time', 'visited', 'ascott', 'feel', 'like', 'partly', 'arriving', 'home', 'staff', 'welcoming', 'especially', 'sonia', 'give', 'big', 'effort', 'make', 'happy', 'room', 'clean', 'spacious', 'plenty', 'international', 'food', 'option', 'menu', 'restaurant', 'decent', 'taste', 'highly', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>['able', 'meet', 'various', 'request', 'including', 'extending', 'stay', 'first', 'part', 'stay', 'breakfast', 'order', 'every', 'day', 'due', 'covid', 'stayed', 'june', 'year', 'served', 'mango', 'breakfast', 'delicious', 'little', 'disappointed', 'mango', 'time']</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'kind', 'especially', 'sonia', 'mahbub', 'zannet', 'first', 'time', 'visit', 'bangladesh', 'didnt', 'know', 'enough', 'information', 'like', 'food', 'coffee', 'store', 'kindly', 'told', 'really', 'nice', 'thank', 'much', 'support', 'giving', 'special', 'milk', 'tea', 'well']</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>['nice', 'stay', 'great', 'hospitality', 'service', 'good', 'hospitality', 'food', 'serving', 'room', 'continuous', 'takibg', 'care', 'behavior', 'good', 'restaurant', 'also', 'good', 'food', 'serving', 'keep', 'go', 'like']</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>['entering', 'hotel', 'look', 'quite', 'ok', 'go', 'restroom', 'show', 'exact', 'standard', 'staff', 'member', 'paying', 'attention', 'new', 'guest', 'frequent', 'people', 'food', 'good', 'restaurant', 'served', 'cold', 'underdone', 'asked', 'speak', 'cook', 'told', 'left', 'early', 'manager', 'around', 'suoerviser', 'professional', 'meeting', 'room', 'dark', 'clean']</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>['frequently', 'visit', 'ascott', 'residence', 'family', 'visit', 'well', 'business', 'would', 'like', 'say', 'found', 'mr', 'tuhin', 'mollah', 'always', 'dedicated', 'work', 'wellmanered', 'know', 'wht', 'hia', 'jib', 'well', 'wish', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>['safe', 'location', 'adequate', 'amenity', 'great', 'staff', 'service', 'heheh', 'sale', 'liquor', 'though', 'rate', 'reasonable', 'high', 'mark', 'hospitality', 'among', 'others', 'light', 'conversation', 'staff', 'named', 'tuhin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>['really', 'nice', 'stay', 'restaurant', 'host', 'm', 'dewan', 'staff', 'always', 'ready', 'help', 'need', 'different', 'kind', 'food', 'asian', 'region', 'give', 'choice', 'try', 'different', 'thing', 'every', 'single', 'day', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>['satisfied', 'experience', 'staying', 'ascott', 'resedence', 'behaviour', 'staff', 'really', 'careful', 'respectful', 'especially', 'mohammed', 'monir', 'uddingro', 'good', 'personi', 'come', 'back', 'hitel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>['good', 'stay', 'staff', 'hospitable', 'including', 'housekeeping', 'mr', 'harun', 'made', 'stay', 'comfortable', 'everything', 'good', 'food', 'come', 'room', 'service', 'great']</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>['satisfied', 'experience', 'staying', 'ascott', 'residence', 'mr', 'md', 'ruhul', 'amin', 'dinner', 'breakfast', 'order', 'customizing', 'per', 'requirement', 'mr', 'harun', 'housekeeping', 'person', 'done', 'good', 'job', 'cleaning']</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>['spent', 'day', 'businessi', 'must', 'say', 'everything', 'excellentthe', 'room', 'comfortable', 'good', 'service', 'good', 'house', 'keeping', 'thanks', 'mrharun', 'good', 'job', 'would', 'recommend', 'hotel', 'business', 'trip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'couple', 'day', 'business', 'tour', 'service', 'good', 'specially', 'support', 'staff', 'behavior', 'always', 'try', 'meet', 'user', 'expectation', 'example', 'requested', 'customize', 'dinner', 'couple', 'day', 'tried', 'manage', 'food', 'accordingly']</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>['satisfied', 'experience', 'staying', 'ascott', 'residence', 'behaviour', 'staff', 'really', 'cheerful', 'respectful', 'environment', 'safe', 'sound', 'happy', 'part', 'hope', 'meet', 'best', 'wish']</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>['great', 'experience', 'place', 'good', 'well', 'foodservicewe', 'highly', 'pleased', 'behaviour', 'stuff', 'service', 'specially', 'sonia', 'tuhin', 'mahmudul', 'good', 'service', 'highly', 'recommended', 'ascott', 'residence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>['overall', 'service', 'hotel', 'view', 'isnt', 'much', 'fascinating', 'even', 'hotel', 'doesnt', 'proper', 'gate', 'recognize', 'outside', 'service', 'people', 'cooperative', 'well', 'restaurant', 'people', 'thats', 'positive', 'side']</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>['truly', 'appreciate', 'team', 'support', 'service', 'hospitality', 'got', 'time', 'ascott', 'residence', 'believe', 'everyone', 'feel', 'comfort', 'even', 'better', 'guy', 'amazing', 'good', 'luck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>['stayed', 'six', 'month', 'ascott', 'residence', 'dhaka', 'covid', 'crisis', 'mrnayeen', 'team', 'garantied', 'guest', 'helth', 'security', 'permanently', 'h', 'meanwhile', 'could', 'stay', 'safe', 'feel', 'protected', 'risk', 'stay', 'hotel', 'moreover', 'recognised', 'quiet', 'difficult', 'keep', 'service', 'level', 'sensitive', 'situation', 'reason', 'really', 'appreciated', 'effort', 'professional', 'attitude', 'service', 'situation', 'course', 'sould', 'forget', 'menton', 'meal', 'quality', 'break', 'fast', 'lunch', 'dinner', 'ground', 'floor', 'thank', 'much', 'effort', 'good', 'luck', 'future']</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>['year', 'coming', 'dhaka', 'year', 'covid', 'pandemic', 'need', 'come', 'dhaka', 'work', 'year', 'prior', 'go', 'location', 'need', 'x', 'negative', 'covid', 'test', 'ascott', 'residence', 'good', 'staff', 'kindly', 'help', 'room', 'cleaning', 'everyday', 'mr', 'rupon', 'da', 'kind', 'staff', 'room', 'boy', 'clean', 'room', 'perfectly', 'good', 'recommended', 'hotel', 'stay', 'one', 'get', 'good', 'food', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'june', 'july', 'staff', 'cheerful', 'cooperative', 'work', 'really', 'feel', 'gratitude', 'first', 'trip', 'dhaka', 'great', 'memory', 'namu', 'shinnyo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>['stayed', 'day', 'ascott', 'residence', 'hotel', 'facility', 'little', 'old', 'however', 'house', 'keeping', 'good', 'could', 'stay', 'comfortably', 'especially', 'room', 'service', 'staff', 'mr', 'suicongon', 'mr', 'ahumdol', 'kind', 'service', 'thank', 'much']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>['great', 'service', 'hotel', 'staff', 'friendly', 'always', 'care', 'problem', 'thank', 'mrrupon', 'da', 'taking', 'good', 'care', 'everything', 'impressed', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>['stay', 'asscott', 'residence', 'dhaka', 'five', 'day', 'found', 'hospitality', 'food', 'good', 'staff', 'cooperative', 'helpfull', 'satisfied', 'behaviour', 'overall', 'service', 'good', 'thanks', 'ruhul', 'sonia', 'rupom', 'care']</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>['really', 'pleasure', 'stay', 'hotel', 'staff', 'guided', 'followed', 'strick', 'covid', 'protocol', 'day', 'stay', 'hotel', 'found', 'staff', 'dining', 'housekeeping', 'much', 'engaged', 'served', 'best', 'guest', 'meet', 'mr', 'rupon', 'da', 'housekeeping', 'staff', 'really', 'amazed', 'nice', 'polite', 'behaviour', 'experience', 'dealing', 'guest', 'food', 'really', 'good', 'covid', 'food', 'served', 'individual', 'room', 'maintaining', 'high', 'level', 'sanitizing', 'food', 'price', 'need', 'review', 'item', 'look', 'expensive', 'considering', 'item', 'happy', 'staying']</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>['nd', 'business', 'trip', 'dhaka', 'japanese', 'feel', 'anxious', 'traveling', 'dhaka', 'first', 'dhaka', 'bangladesh', 'familiar', 'due', 'long', 'distance', 'hotel', 'provides', 'great', 'hospitality', 'satisfies', 'many', 'japanese', 'room', 'kept', 'clean', 'every', 'day', 'nice', 'house', 'keepingroom', 'attendant', 'including', 'harun', 'charge', 'room', 'time', 'hot', 'shower', 'bathe', 'enjoyed', 'every', 'day', 'beneficial', 'japanese', 'well', 'restaurant', 'food', 'also', 'good', 'though', 'limited', 'kind', 'dish', 'breakfast', 'uneven', 'taste', 'sometimes', 'disappoint', 'however', 'tania', 'nice', 'cooker', 'restaurant', 'cook', 'well', 'soup', 'excellent', 'japanese']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>['rd', 'visit', 'ascott', 'residence', 'dhaka', 'ive', 'received', 'daily', 'service', 'mr', 'rupon', 'one', 'housekeeper', 'hotel', 'accepts', 'request', 'eager', 'give', 'hospitality', 'every', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>['hotel', 'cleaned', 'housekeeping', 'person', 'mr', 'rupon', 'da', 'always', 'cleaning', 'room', 'every', 'day', 'hard', 'lead', 'comfortable', 'business', 'travel', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>['good', 'place', 'stay', 'supportive', 'decent', 'service', 'team', 'comfortable', 'arrangement', 'restaurant', 'service', 'special', 'thanks', 'tuhin', 'ruhul', 'tasfia', 'warm', 'hospitality', 'appreciate', 'effort']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>['sonia', 'team', 'excellent', 'sumsouzzaman', 'dewan', 'best', 'person', 'got', 'nice', 'attitude', 'service', 'hotel', 'good', 'one', 'food', 'service', 'ok', 'food', 'service', 'room', 'neat', 'clean']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>['really', 'nice', 'hotel', 'dhaka', 'especially', 'room', 'service', 'house', 'keeping', 'taste', 'meal', 'good', 'took', 'minute', 'room', 'service', 'mr', 'rupon', 'really', 'helpful', 'keep', 'room', 'clean', 'stay', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>['stay', 'hotel', 'ascott', 'residence', 'june', 'found', 'housekeeping', 'assistant', 'mr', 'rupon', 'da', 'helpful', 'enthusiastic', 'delivering', 'world', 'class', 'service', 'im', 'wishing', 'good', 'luck', 'smart', 'guy', 'continue', 'delivering', 'best', 'saifullah', 'limon', 'chevron', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>['place', 'cool', 'calm', 'improved', 'food', 'quality', 'especially', 'bangladeshi', 'people', 'improvement', 'change', 'room', 'furniture', 'furniture', 'old', 'fashioned', 'looked', 'dirty', 'room', 'service', 'good', 'especially', 'mahamudul', 'hasan', 'professional', 'decent', 'hope', 'future', 'success']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'hotel', 'improved', 'service', 'past', 'specially', 'room', 'service', 'rupon', 'da', 'helpful', 'coordial', 'person', 'serve', 'ascott', 'improves', 'food', 'quality', 'also', 'time', 'much', 'happy', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>['staff', 'friendly', 'always', 'care', 'problem', 'fact', 'told', 'receptionist', 'wanted', 'use', 'microwave', 'oven', 'room', 'came', 'set', 'later', 'day', 'life', 'bangladesh', 'difficult', 'japanese', 'people', 'hospitality', 'delicious', 'bengali', 'meal', 'hot', 'bath', 'make', 'good', 'place', 'relax', 'long', 'stay', 'also', 'small', 'supermarket', 'road', 'next', 'one', 'japanese', 'cup', 'ramen', 'pocari', 'sweat', 'also', 'available', 'may', 'feel', 'safe', 'homesick', 'thank', 'much', 'mr', 'rupon', 'work', 'like', 'concierge']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>['business', 'stayed', 'month', 'staff', 'much', 'kindness', 'try', 'best', 'u', 'staying', 'comfortable', 'especially', 'mrrupon', 'da', 'housekeeping', 'staff', 'mrmorra', 'mssonia', 'restaurant', 'staff', 'thanks', 'helping', 'trouble', 'working', 'hard', 'allah', 'hafis']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'day', 'mandatory', 'institutional', 'quarantine', 'period', 'everybody', 'helpful', 'friendly', 'professional', 'hard', 'balance', 'especially', 'sonia', 'restaurant', 'make', 'feel', 'like', 'special', 'guest', 'kitchen', 'staff', 'tried', 'best', 'accommodate', 'need', 'definitely', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'month', 'comfortable', 'didnt', 'want', 'leave', 'stay', 'lonely', 'birthday', 'hotel', 'staff', 'seemed', 'aware', 'received', 'surprise', 'present', 'cake', 'happy', 'concern', 'staff', 'kind', 'friendly', 'polite', 'thanks', 'good', 'time', 'responded', 'promptly', 'politely', 'event', 'trouble', 'noise', 'neighbor', 'lack', 'internet', 'access', 'food', 'restaurant', 'delicious', 'especially', 'shrimp', 'dopiaza', 'best', 'ask', 'breakfast', 'brew', 'delicious', 'cappuccino', 'hotel', 'like', 'hometown', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'facility', 'good', 'enjoyed', 'stay', 'decent', 'hygienic', 'covid', 'safety', 'measure', 'place', 'stayed', 'business', 'purpose', 'overall', 'hospitality', 'great', 'location', 'hotel', 'secured', 'quiet', 'placed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>['hotel', 'ascott', 'residence', 'check', 'mar', 'check', 'mar', 'room', 'unparallel', 'service', 'recommend', 'ascott', 'restaurant', 'incharge', 'sonias', 'sincerity', 'efficiency', 'responsibility', 'punctuality', 'special', 'dish', 'chef', 'kilpots', 'taki', 'fish', 'mash', 'vorta', 'excellent', 'room', 'service', 'especially', 'hasan', 'tuhin', 'bayjid', 'tanvir', 'heartily', 'remember', 'mr', 'sizar', 'amiable', 'professional', 'currently', 'working', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>['five', 'day', 'awesome', 'experience', 'regarding', 'service', 'provided', 'staff', 'really', 'friendly', 'service', 'delay', 'minimal', 'food', 'also', 'good', 'choose', 'traditional', 'item', 'little', 'mosquito', 'issue', 'aerosol', 'spray', 'okay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'covid', 'safety', 'measure', 'place', 'best', 'best', 'staff', 'behavior', 'professionalism', 'remarkable', 'communication', 'skill', 'stayed', 'day', 'due', 'business', 'purpose', 'found', 'cleanliness', 'timely', 'food', 'laundry', 'service', 'overall', 'hospitality', 'great', 'special', 'thanks', 'mr', 'harun', 'mr', 'sonia', 'professionalism', 'location', 'hotel', 'secured', 'quiet', 'placed', 'busiest', 'dhaka', 'city', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>['staying', 'ascott', 'residence', 'several', 'time', 'pandemic', 'situation', 'due', 'business', 'purpose', 'must', 'say', 'shown', 'thoughtfulness', 'term', 'hospitality', 'room', 'service', 'cleanliness', 'mr', 'ceaser', 'm', 'sonia', 'proactive', 'ensuring', 'requirement', 'stay', 'nevertheless', 'improvement', 'opportunity', 'term', 'food', 'preparation', 'felt', 'food', 'menu', 'could', 'versatile', 'overall', 'pleased', 'service', 'hospitality', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>['stayed', 'couple', 'day', 'n', 'service', 'quite', 'impressive', 'hospitalityfoodprompt', 'response', 'problemcordiality', 'everything', 'amazing', 'started', 'feeling', 'home', 'must', 'mention', 'mrnobel', 'restaurant', 'team', 'mrreaz', 'reception', 'team', 'supportive', 'thoroughout', 'stay', 'got', 'sick', 'post', 'covid', 'duty', 'isolation', 'periodthey', 'managed', 'drug', 'immediately', 'adjusted', 'menu', 'according', 'taste', 'hotel', 'clean', 'offer', 'good', 'view', 'also']</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'staff', 'much', 'cordial', 'especially', 'front', 'desk', 'officer', 'mr', 'mahfuz', 'good', 'person', 'friendly', 'personally', 'think', 'like', 'much', 'also', 'best', 'service', 'provider', 'hotel', 'highly', 'recommended', 'visit', 'ascott', 'hotel', 'short', 'trip', 'business', 'work', 'good', 'environment', 'nice', 'place', 'workoutspa', 'facility', 'available', 'location', 'perfect', 'feeling', 'like', 'dhaka', 'almost', 'noise', 'free', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>['hotel', 'clean', 'provides', 'great', 'hospitality', 'front', 'desk', 'service', 'provideer', 'mrrobin', 'much', 'gentle', 'good', 'guyhis', 'behaviour', 'awasome', 'restaurant', 'room', 'service', 'provider', 'mrnobelhe', 'best', 'resturant', 'room', 'servicemrtuhin', 'womanname', 'cant', 'rememberis', 'helpful', 'housekeeping', 'room', 'cleaning', 'service', 'provider', 'boy', 'really', 'greatthey', 'always', 'fulfilled', 'dimand', 'need', 'staff', 'specially', 'mrsohag', 'helpful', 'car', 'driver', 'also', 'good', 'hotel', 'provided', 'almost', 'every', 'facility', 'rooftop', 'cafeteria', 'gym', 'hotel', 'great', 'overall', 'experience', 'awesome', 'ill', 'recommend', 'hotel', 'every', 'couple', 'family']</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>['left', 'ascott', 'residencedhaka', 'yesterdayi', 'stayed', 'week', 'covid', 'duty', 'bsmmurooms', 'well', 'decorated', 'cleanhouse', 'keeping', 'service', 'good', 'especially', 'would', 'like', 'mention', 'tania', 'helpfulrestaurent', 'service', 'okall', 'helpful', 'u', 'especially', 'mrnobel', 'restaurant', 'service', 'satisfactory', 'one', 'thing', 'must', 'mention', 'food', 'seletionmenu', 'goodit', 'tasty', 'especially', 'vegetable', 'onion', 'undercookedfried', 'rice', 'tasty', 'vegetable', 'curry', 'chicken', 'curry', 'good', 'rather', 'fried', 'chicken', 'gooddesserts', 'tasty', 'especially', 'pudding', 'payesi', 'enjoyed', 'security', 'service', 'excellent', 'enjoyed', 'quarantine', 'period', 'happilythanks', 'hospitalitywish', 'u', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>['located', 'near', 'u', 'embassiperfect', 'location', 'hotel', 'clean', 'provides', 'u', 'great', 'hospitality', 'restaurant', 'room', 'service', 'provider', 'mrnobel', 'helpful', 'guide', 'u', 'throughout', 'stay', 'staff', 'helpful', 'hotel', 'provides', 'u', 'almost', 'every', 'facility', 'rooftop', 'cafeteria', 'gym', 'hotel', 'greati', 'mean', 'overall', 'experience', 'awesome', 'ill', 'recommend', 'hotel', 'every', 'couple', 'family', 'wont', 'regretjust']</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>['tomorrow', 'leave', 'hotel', 'stayed', 'week', 'fully', 'satisfied', 'service', 'staff', 'cooperative', 'food', 'tasty', 'room', 'well', 'decorated', 'clean', 'among', 'staff', 'specially', 'want', 'mention', 'mr', 'hasan', 'mr', 'surongon', 'housekeeping', 'department', 'mr', 'nobel', 'restaurant', 'know', 'job', 'best', 'wish', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>['location', 'hotel', 'diplomatic', 'area', 'calm', 'quiet', 'region', 'dhaka', 'well', 'mannered', 'well', 'behaved', 'staff', 'sincere', 'responsible', 'service', 'room', 'well', 'equipped', 'modern', 'facility', 'present', 'food', 'also', 'food']</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'highly', 'recommended', 'short', 'trip', 'business', 'work', 'good', 'environment', 'love', 'food', 'nice', 'place', 'workout', 'guess', 'spa', 'facility', 'surrounding', 'security', 'also', 'fantastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>['service', 'food', 'satisfactoryfood', 'goodhouse', 'keeping', 'timely', 'satisfactorythere', 'complementary', 'laundry', 'day', 'hotel', 'room', 'beautiful', 'comfortable', 'alsothere', 'beautiful', 'roof', 'top', 'location', 'perfect', 'feeling', 'like', 'dhaka', 'almost', 'noise', 'freebut', 'gym', 'need', 'bit', 'maintainanceall', 'service', 'men', 'friendlyover', 'satisfied', 'recommend', 'visitor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>['visited', 'hotel', 'stay', 'away', 'family', 'covid', 'duty', 'service', 'excellent', 'staff', 'much', 'cooperativeamong', 'name', 'mr', 'mahfuz', 'mr', 'motin', 'mr', 'mahmudul', 'food', 'excellent', 'u', 'discomfort', 'u', 'ask', 'authority', 'ur', 'wish', 'granted', 'moreover', 'served', 'birthday', 'cake', 'one', 'colleague', 'stay', 'complimentary', 'wish', 'hotel', 'best', 'surely', 'recommend', 'u']</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>['staff', 'much', 'cordial', 'epeially', 'tania', 'novelfoods', 'much', 'delicious', 'desert', 'awesom', 'especial', 'thanks', 'birthday', 'cake', 'much', 'testythey', 'maintain', 'proper', 'hygiene', 'pandemic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>['visited', 'business', 'purposeswhen', 'entered', 'hotel', 'looked', 'staff', 'hotel', 'friendlythe', 'front', 'desk', 'officer', 'accommodating', 'kind', 'basically', 'mrmahfuz', 'excellent', 'security', 'bell', 'boy', 'also', 'good', 'restaurant', 'staff', 'pleasant', 'friendlyfood', 'excellentwhen', 'free', 'visit', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>['location', 'great', 'office', 'room', 'clean', 'functional', 'loved', 'different', 'tea', 'staff', 'superb', 'especially', 'sarowar', 'door', 'like', 'brother', 'stay', 'restaurant', 'something', 'different', 'everyday', 'chef', 'offered', 'prepare', 'british', 'food', 'homesick']</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>['staff', 'hotel', 'courteous', 'friendly', 'front', 'desk', 'officer', 'accommodating', 'remember', 'name', 'need', 'restaurant', 'staff', 'pleasant', 'friendly', 'especially', 'sonia', 'gloria']</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>['writing', 'pandemic', 'sure', 'visit', 'hotel', 'stayed', 'mid', 'march', 'wanted', 'say', 'word', 'appreciation', 'farhad', 'front', 'desk', 'used', 'give', 'u', 'travel', 'tip', 'hope', 'stay', 'hotel', 'sometime', 'future']</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>['staff', 'hotel', 'courteous', 'friendly', 'front', 'desk', 'officer', 'accommodating', 'remember', 'name', 'need', 'restaurant', 'staff', 'pleasant', 'friendly', 'especially', 'sonia', 'gloria']</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>['sonia', 'resturant', 'kind', 'cheerful', 'made', 'breakfast', 'enjoyable', 'enthusiasm', 'professionalism', 'serve', 'guest', 'make', 'guest', 'comfortable', 'etc', 'manifest', 'time', 'visited', 'restaurant', 'made', 'welcomed', 'gave', 'place', 'familiar', 'place', 'kind', 'feeling', 'guest', 'room', 'strange', 'lowfrequency', 'humming', 'noise', 'location', 'example', 'youd', 'notice', 'hum', 'one', 'side', 'bed', 'move', 'head', 'edge', 'bed', 'becomes', 'almost', 'inaudible', 'loudest', 'id', 'sit', 'work', 'pc', 'desk', 'persisted', 'ac', 'sometimes', 'stopped', 'restarted', 'idea', 'two', 'problem', 'bath', 'room', 'mechanical', 'ventilation', 'fan', 'installed', 'small']</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>['spending', 'time', 'ascott', 'restaurant', 'amazing', 'especially', 'tuhin', 'masud', 'sonia', 'harun', 'around', 'mind', 'still', 'reflects', 'big', 'smile', 'treat', 'would', 'love', 'come', 'hotel', 'enjoy', 'service', 'keep', 'good', 'job']</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>['ascott', 'good', 'clean', 'restaurant', 'extesnive', 'menu', 'bashir', 'sonia', 'look', 'well', 'also', 'sarowar', 'door', 'become', 'good', 'friend', 'highly', 'recommended', 'ascott', 'home', 'home']</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>['hotel', 'located', 'embassy', 'area', 'safer', 'foreigner', 'hospitality', 'pretty', 'awesome', 'especially', 'm', 'gloria', 'mr', 'bashar', 'restaurent', 'co', 'operative', 'along', 'staff', 'thanks', 'ascott', 'team', 'comfortable', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>['trip', 'bangladesh', 'working', 'nursing', 'instructor', 'tangail', 'space', 'perfect', 'place', 'replenish', 'self', 'liked', 'massage', 'got', 'especially', 'food', 'service', 'restaurant', 'impeccable', 'highly', 'recommend', 'btw', 'delayed', 'write', 'last', 'winter', 'finally', 'sitting', 'write', 'review', 'sorry', 'sonya', 'delay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>['hotel', 'booked', 'admin', 'team', 'find', 'nice', 'hospitality', 'nice', 'like', 'address', 'airport', 'starting', 'early', 'morning', 'till', 'service', 'outstanding', 'way', 'treat', 'people', 'big', 'smile', 'take', 'care', 'dont', 'feel', 'hotel', 'day', 'missed', 'breakfast', 'nice', 'experience', 'dinner', 'overall', 'food', 'experience', 'great', 'naming', 'name', 'gloria', 'smart', 'breakfast', 'person', 'bhasar', 'whole', 'team', 'working', 'great', 'tuhin', 'smile', 'make', 'day', 'enjoyable', 'missing', 'part', 'spa', 'gym', 'bad', 'luck', 'maintenance']</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>['locates', 'safe', 'zone', 'city', 'room', 'big', 'highquality', 'towel', 'good', 'hospitality', 'staff', 'average', 'breakfast', 'beware', 'mosquito', 'hotel', 'room', 'general', 'dhaka', 'city']</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>['room', 'rate', 'bit', 'pricy', 'room', 'selection', 'around', 'town', 'since', 'terror', 'attack', 'satisfied', 'associate', 'naming', 'customer', 'loud', 'voice', 'form', 'morning', 'till', 'late', 'since', 'trained', 'way', 'would', 'request', 'hotel', 'manager', 'ask', 'calling', 'name', 'time', 'public', 'room', 'pricy', 'facility', 'shall', 'updated', 'particularly', 'health', 'gtym']</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>['wife', 'recently', 'stayed', 'ascott', 'residence', 'longer', 'period', 'nothing', 'else', 'pleased', 'incredibly', 'friendly', 'staff', 'way', 'general', 'manager', 'housekeeper', 'always', 'felt', 'home', 'restaurant', 'provided', 'great', 'food', 'dinner', 'well', 'excellent', 'breakfast', 'even', 'improved', 'last', 'week', 'always', 'happy', 'chat', 'staff', 'warmly', 'recommend', 'everyone', 'come']</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'residence', 'three', 'month', 'business', 'trip', 'first', 'time', 'bangladesh', 'staff', 'ascott', 'residence', 'everything', 'could', 'make', 'feel', 'welcome', 'hospitality', 'hotel', 'amazing', 'special', 'thanks', 'staff', 'restaurant', 'concierge', 'greeted', 'u', 'talked', 'u', 'everyday', 'would', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>['every', 'person', 'kind', 'special', 'guest', 'staying', 'problem', 'one', 'point', 'id', 'like', 'request', 'install', 'baralcohol', 'service', 'pool', 'perfect']</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>['environment', 'great', 'staff', 'friendly', 'located', 'peaceful', 'environment', 'hospitality', 'par', 'lovely', 'place', 'short', 'even', 'long', 'trip', 'recommend', 'choose', 'ascott', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>['placed', 'safe', 'secured', 'zone', 'friendly', 'enough', 'professionalism', 'accommodation', 'food', 'amenity', 'simply', 'great', 'importantly', 'service', 'provided', 'good', 'enough']</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>['nice', 'hotel', 'comfortable', 'room', 'facility', 'clean', 'hygienic', 'good', 'food', 'especially', 'great', 'coffee', 'great', 'business', 'travel', 'safe', 'part', 'dhaka', 'staff', 'outstanding', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>['food', 'service', 'great', 'atmosphere', 'good', 'specially', 'rooftopbehavior', 'staff', 'excellent', 'overall', 'service', 'great', 'satisfied', 'service', 'good', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>['accommodation', 'placed', 'safety', 'area', 'suitable', 'business', 'trip', 'foreigner', 'every', 'facility', 'clean', 'neat', 'clerk', 'kind', 'come', 'bangladesh', 'recommend', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>['ascott', 'hotel', 'often', 'stay', 'come', 'dhaka', 'located', 'safe', 'district', 'service', 'provided', 'hotel', 'staff', 'comfortable', 'kind', 'enough', 'support', 'anything', 'needed', 'friend', 'injured', 'leg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>['spent', 'nine', 'consecutive', 'working', 'day', 'hotel', 'part', 'work', 'commitment', 'hotel', 'located', 'oasis', 'leafy', 'diplomatic', 'district', 'inhouse', 'guest', 'used', 'hotel', 'facility', 'delicious', 'lunch', 'every', 'daythe', 'team', 'wonderful', 'job', 'making', 'guest', 'feel', 'welcome', 'including', 'remembering', 'name', 'like', 'coffee', 'food', 'restaurant', 'always', 'fresh', 'tasty', 'staff', 'met', 'great', 'sonia', 'standout', 'thank', 'memorable', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>['stayed', 'one', 'night', 'ascott', 'way', 'berlin', 'attend', 'theater', 'festival', 'guest', 'goethe', 'institute', 'pleasantly', 'surprised', 'discover', 'nice', 'little', 'hotel', 'offering', 'top', 'quality', 'service', 'amenity', 'strongly', 'recommend', 'others', 'wish', 'owner', 'management', 'classy', 'hotel', 'good', 'luck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>['completed', 'successful', 'training', 'sessionthe', 'environment', 'good', 'enough', 'service', 'alsothey', 'humblemost', 'importantly', 'staff', 'made', 'program', 'incrediblemr', 'tuhin', 'mr', 'farzana', 'contributed', 'lot', 'carry', 'training', 'conveniently', 'efficient', 'waythey', 'r', 'fast', 'service', 'well', 'polite', 'alsotheir', 'service', 'made', 'feel', 'honouredthey', 'served', 'trainee', 'timely', 'ensured', 'best', 'servicethey', 'always', 'handled', 'tiny', 'problem', 'patiently', 'gave', 'u', 'problem', 'vibesmoreover', 'great', 'meeting', 'hotel', 'well', 'behavioral', 'staffshope', 'grab', 'comfortable', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>['frequent', 'traveler', 'dhaka', 'usually', 'stay', 'ascott', 'hotel', 'comfortable', 'meet', 'need', 'nice', 'staff', 'remembered', 'name', 'usual', 'great', 'service', 'provided', 'team', 'mr', 'jasim', 'arfan', 'delwer', 'restaurant', 'keep', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'several', 'day', 'may', 'super', 'friendly', 'staffalways', 'smile', 'dining', 'room', 'staff', 'extraordinarily', 'kind', 'pleasant', 'even', 'offering', 'special', 'ginger', 'tea', 'help', 'recover', 'cold', 'overall', 'clean', 'quiet', 'comfortable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>['clean', 'organized', 'safe', 'convenient', 'pleasure', 'stay', 'breakfast', 'coffee', 'amazing', 'staff', 'helpful', 'got', 'laundry', 'done', 'amazing', 'speed', 'definitely', 'stay', 'next', 'trip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>['great', 'helpful', 'staff', 'room', 'unusual', 'smell', 'bed', 'extremely', 'hard', 'think', 'improved', 'understand', 'hotel', 'relatively', 'old', 'however', 'havent', 'seen', 'mosquito', 'bedbug', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>['stayed', 'second', 'time', 'around', 'day', 'staff', 'extremely', 'nice', 'helpful', 'location', 'good', 'room', 'good', 'clean', 'breakfast', 'yummy', 'lot', 'variety']</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'gulshan', 'diplomatic', 'area', 'dhaka', 'quiet', 'residential', 'street', 'close', 'several', 'major', 'embassy', 'airport', 'flight', 'path', 'noise', 'bad', 'little', 'residential', 'building', 'within', 'walking', 'distance', 'hotel', 'apart', 'convenience', 'store', 'road', 'another', 'ascott', 'hotel', 'road', 'hotel', 'dhaka', 'security', 'guard', 'entrance', 'car', 'park', 'screen', 'bag', 'xray', 'machine', 'front', 'door', 'screen', 'metal', 'detector', 'hotel', 'quite', 'small', 'two', 'restaurant', 'gym', 'spa', 'restaurant', 'wide', 'selection', 'good', 'quality', 'local', 'asian', 'western', 'meal', 'subject', 'service', 'charge', 'vat', 'add', 'significantly']</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>['hotel', 'placed', 'quiet', 'residential', 'area', 'dhaka', 'room', 'good', 'size', 'comfortable', 'bed', 'good', 'connectivity', 'internet', 'many', 'place', 'informal', 'meeting', 'visitor', 'terrace', 'pleasant', 'terrace', 'top', 'floor', 'staff', 'helpful', 'amiable', 'nice', 'second', 'stay', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>['service', 'clerk', 'excellent', 'room', 'always', 'clean', 'feel', 'comfortable', 'whenever', 'staying', 'location', 'safety', 'zone', 'dhaka', 'next', 'time', 'decide', 'make', 'reservation']</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'problem', 'occurring', 'solved', 'immediately', 'suite', 'also', 'little', 'kitchen', 'micro', 'oven', 'electric', 'stove', 'different', 'utensil', 'making', 'small', 'dish', 'channel', 'available', 'television']</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>['week', 'ascott', 'residence', 'pleasant', 'great', 'hotel', 'spacy', 'clean', 'room', 'friendly', 'helpful', 'staff', 'relaxing', 'rooftop', 'terrace', 'enjoy', 'great', 'coffee', 'speciality', 'japanese', 'cuisine', 'would', 'warmly', 'recommend', 'staying', 'one', 'business', 'trip', 'looking', 'quiet', 'residency', 'away', 'hectic', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>['stay', 'regularly', 'frequent', 'business', 'trip', 'enjoyed', 'dinner', 'chill', 'n', 'grill', 'rooftop', 'restaurant', 'great', 'service', 'provided', 'm', 'farzana', 'food', 'cooked', 'nicely', 'chef', 'tania', 'keep', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>['ive', 'stayed', 'hotel', 'sister', 'hotel', 'theee', 'time', 'service', 'wonderful', 'staff', 'friendly', 'helpful', 'place', 'clean', 'food', 'delicious', 'make', 'uk', 'tummy', 'ill', 'superb', 'coffee', 'shop', 'also', 'good', 'coffee', 'admit', 'im', 'dreadful', 'coffee', 'snob', 'highly', 'recommend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'wonderful', 'place', 'training', 'quiet', 'location', 'dhaka', 'excellent', 'room', 'wellbehaved', 'responsive', 'staff', 'variety', 'food', 'others', 'pay', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'great', 'place', 'hold', 'training', 'course', 'week', 'quiet', 'location', 'dhaka', 'excellent', 'facility', 'staff', 'could', 'helpful', 'mr', 'bashar', 'going', 'length', 'ensure', 'everything', 'needed', 'week', 'great', 'success', 'highly', 'recommend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'two', 'night', 'really', 'liked', 'attentive', 'service', 'fantastic', 'food', 'restaurant', 'ground', 'floor', 'chill', 'grill', 'bbq', 'terrace', 'location', 'hotel', 'definitely', 'recommend', 'amazing', 'place', 'want', 'visit', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>['thangks', 'hospitality', 'especially', 'ebullient', 'sonia', 'artistic', 'coffee', 'treat', 'ashish', 'warmhearted', 'tuhin', 'remember', 'genuine', 'smile', 'kindness', 'enjoy', 'tranquility']</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>['stayed', 'day', 'attentive', 'service', 'daily', 'newspapersslippers', 'complimentary', 'fruit', 'airport', 'shuttle', 'restaurant', 'staff', 'remembering', 'liked', 'coffee', 'without', 'asking', 'folllowing', 'day', 'hallmark', 'good', 'hotel', 'look', 'clientele', 'particularly', 'liked', 'fact', 'woman', 'felt', 'safe', 'spending', 'final', 'night', 'alone', 'without', 'concern']</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>['stayed', 'night', 'hotel', 'everybody', 'amazing', 'staff', 'lovely', 'everything', 'standard', 'jasim', 'sayed', 'restaurant', 'really', 'great', 'people', 'served', 'beyond', 'expectation', 'food', 'amazing', 'delicious', 'enjoyed', 'hotel', 'location', 'really', 'good', 'everything', 'reasonable', 'distance', 'recommend', 'amazing', 'place', 'want', 'visit', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'residence', 'several', 'time', 'feel', 'safe', 'comfortable', 'food', 'good', 'nice', 'variety', 'wish', 'gym', 'rooftop', 'better', 'equipment', 'room', 'open', 'view']</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>['nice', 'experience', 'stay', 'hotel', 'make', 'feel', 'comfortable', 'secure', 'give', 'taste', 'bangladesh', 'hospitalityi', 'really', 'liked', 'fact', 'care', 'small', 'detail', 'fruit', 'platter', 'room', 'arrival', 'one', 'small', 'snicker', 'bar', 'clean', 'kept', 'roomreally', 'nice', 'business', 'hotel', 'secure', 'provides', 'excellent', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>['stayed', 'week', 'impressed', 'extremely', 'diligent', 'service', 'kindness', 'friendliness', 'staff', 'room', 'comfortable', 'clean', 'appreciated', 'little', 'touch', 'mosquito', 'spraying', 'room', 'chocolate', 'newspaper', 'breakfast', 'offer', 'diverse', 'caters', 'type', 'bashar', 'sonia', 'deserve', 'special', 'praise', 'hospitality', 'excellent', 'service', 'always', 'smile', 'jacim', 'also', 'deserves', 'mention', 'allround', 'attentiveness', 'care', 'mohammed', 'ali', 'chill', 'grill', 'restaurant', 'provides', 'good', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>['often', 'stay', 'hotel', 'bring', 'drink', 'self', 'staff', 'prepare', 'ice', 'cube', 'lot', 'st', 'floor', 'restaurant', 'm', 'farzana', 'staff', 'kind', 'shuttle', 'bus', 'service', 'every', 'hour', 'morning', 'time', 'pick', 'send', 'airport']</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>['stayed', 'week', 'work', 'friendly', 'staff', 'good', 'service', 'last', 'night', 'dinner', 'roof', 'top', 'restaurant', 'great', 'service', 'provided', 'mr', 'mohammad', 'ali', 'senior', 'supervisor', 'sirloin', 'steak', 'cooked', 'perfection', 'chef', 'tania', 'would', 'recommend', 'restaurant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>['first', 'stay', 'ascott', 'residence', 'great', 'room', 'average', 'firm', 'soft', 'mattress', 'kept', 'spotlessly', 'clean', 'thoughtful', 'housekeeping', 'staff', 'left', 'complimentary', 'fruit', 'lined', 'shoe', 'even', 'left', 'snicker', 'bar', 'nightly', 'turndown', 'service', 'think', 'evening', 'staff', 'member', 'name', 'masmud', 'didnt', 'meet', 'daytime', 'staff', 'several', 'meal', 'restaurant', 'glad', 'see', 'many', 'vegetarian', 'option', 'breakfast', 'great', 'best', 'part', 'restaurant', 'staff', 'especially', 'jasim', 'sarya', 'remembered', 'name', 'drink', 'preference', 'fantastic', 'warm', 'hotel', 'staff', 'overall', 'helpful', 'concerned', 'make', 'sure', 'good', 'visit', 'dhaka', 'ill', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>['stayed', 'twice', 'hotel', 'one', 'week', 'period', 'room', 'number', 'another', 'xx', 'forgot', 'number', 'first', 'time', 'upgraded', 'luxury', 'family', 'room', 'rather', 'spacious', 'decor', 'design', 'bit', 'old', 'fashioned', 'slight', 'unpleasant', 'tolerable', 'smell', 'smaller', 'room', 'stayed', 'second', 'time', 'better', 'wifi', 'connection', 'throughout', 'stay', 'horrible', 'inside', 'room', 'constantly', 'drop', 'connection', 'minute', 'however', 'would', 'applaud', 'staff', 'creating', 'memorable', 'experience', 'u', 'specifically', 'delwar', 'jasim', 'fb', 'service', 'delwar', 'quite', 'chatty', 'attentive', 'even', 'gave', 'u', 'surprise', 'birthday', 'celebration', 'friend', 'kudos', 'staff', 'asccott', 'residence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>['staff', 'manager', 'reservation', 'officer', 'receptionist', 'bell', 'staff', 'security', 'guard', 'waiterswaitresses', 'chef', 'men', 'lady', 'restaurant', 'ground', 'top', 'floor', 'room', 'service', 'fitness', 'club', 'receptionist', 'technician', 'driver', 'well', 'educated', 'hospitality', 'guest', 'stayed', 'day', 'total', 'last', 'year', 'business', 'everytime', 'feel', 'happy', 'stay', 'staff', 'course', 'wiil', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>['reasonable', 'accommodation', 'near', 'deplomatic', 'area', 'security', 'breakfast', 'ok', 'much', 'scope', 'improve', 'option', 'variety', 'vegetarian', 'dinner', 'also', 'ok', 'public', 'transport', 'option', 'available']</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>['pleasure', 'stay', 'excellent', 'service', 'arrival', 'departure', 'staff', 'professional', 'friendly', 'helpful', 'room', 'clean', 'amenity', 'may', 'need', 'bed', 'kingsize', 'comfortable', 'sleep', 'wifi', 'work', 'average', 'speed', 'hotel', 'restaurant', 'small', 'buffet', 'breakfast', 'also', 'provided', 'continental', 'breakfast', 'early', 'departure', 'restaurant', 'staff', 'helpful', 'nice', 'attitude', 'offered', 'food', 'taking', 'care', 'like', 'brotherhood', 'specially', 'mr', 'jamal', 'thank', 'much', 'excellent', 'smiling', 'service', 'swimming', 'pool', 'nice', 'rooftop', 'ideal', 'hotel', 'long', 'flight', 'massage', 'departure', 'also', 'good', 'reasonably', 'priced', 'hotel', 'located', 'safe', 'secure', 'place', 'would']</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>['rd', 'dhaka', 'visit', 'hotel', 'always', 'staying', 'almost', 'day', 'ascott', 'residence', 'cover', 'basic', 'need', 'guest', 'mostly', 'business', 'traveller', 'foreigner', 'room', 'clean', 'comfortable', 'best', 'part', 'hotel', 'warm', 'friendly', 'english', 'speaking', 'staff', 'house', 'keeping', 'team', 'really', 'excellent', 'always', 'stand', 'support', 'towards', 'need', 'food', 'superb', 'may', 'feel', 'extra', 'superb', 'charming', 'energetic', 'fb', 'team', 'member', 'always', 'side', 'best', 'quality', 'food', 'member', 'fb', 'team', 'including', 'manager', 'access', 'requirement', 'serve', 'best', 'one', 'team', 'member', 'namely', 'ashis', 'simply', 'superb', 'personality', 'energetic', 'sound', 'knowledge', 'culture', 'place', 'food', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'older', 'two', 'group', 'operates', 'neighborhood', 'told', 'used', 'stay', 'property', 'ascott', 'palace', 'first', 'time', 'residence', 'compared', 'palace', 'lobby', 'residence', 'smaller', 'restaurant', 'darker', 'functional', 'could', 'use', 'new', 'decor', 'steep', 'ramp', 'entrance', 'lobby', 'elevator', 'level', 'improved', 'better', 'safety', 'less', 'strong', 'tired', 'long', 'flight', 'room', 'spacious', 'bed', 'hard', 'comfortable', 'large', 'work', 'desktop', 'good', 'power', 'outlet', 'right', 'place', 'problem', 'ac', 'probably', 'ancient', 'unit', 'loud', 'turned', 'low', 'wind', 'speed', 'well', 'go', 'low']</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>['though', 'premise', 'big', 'hospitality', 'nice', 'secured', 'location', 'staff', 'well', 'mannered', 'hotel', 'well', 'furnished', 'neat', 'clean', 'rooftop', 'green', 'bbq', 'facility', 'love']</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>['stayed', 'day', 'workshop', 'took', 'plce', 'venue', 'stay', 'workhop', 'simply', 'excellent', 'would', 'gladly', 'return', 'amazing', 'hotel', 'highlight', 'staff', 'incredible', 'polite', 'always', 'willing', 'help']</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>['ascott', 'cover', 'basic', 'hotel', 'whose', 'guest', 'mostly', 'business', 'traveler', 'outside', 'country', 'room', 'nice', 'comfortable', 'decently', 'clean', 'good', 'complimentary', 'breakfast', 'best', 'part', 'ascott', 'warm', 'friendly', 'staff', 'everyone', 'speaks', 'english', 'always', 'ready', 'help', 'always', 'make', 'feel', 'home', 'wifi', 'connection', 'bit', 'weak', 'room', 'always', 'enjoy', 'famous', 'bangladeshi', 'hospitality', 'receive', 'every', 'time', 'stay', 'ascott']</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'excellent', 'service', 'friendly', 'staff', 'hotel', 'restaurant', 'good', 'food', 'hr', 'service', 'breakfast', 'excellent', 'room', 'clean', 'although', 'view', 'room', 'another', 'building', 'construction', 'spa', 'fitness', 'centre', 'small', 'dark', 'treatment', 'good', 'excellent', 'value', 'money', 'location', 'hotel', 'near', 'airport', 'secure', 'area', 'although', 'bit', 'far', 'away', 'shopping', 'center', 'internet', 'wifi', 'free', 'high', 'quality', 'overall', 'enjoyable', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>['accommodation', 'rate', 'dhaka', 'city', 'higher', 'country', 'hotel', 'cost', 'performance', 'good', 'also', 'hotel', 'big', 'wellbalanced', 'room', 'clean', 'wide', 'always', 'relaxed', 'thanks', 'helpful', 'friendly', 'staff']</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>['town', 'safety', 'location', 'room', 'comfortable', 'good', 'cleaning', 'service', 'restaurant', 'rooftop', 'bb', 'managed', 'mr', 'basher', 'professional', 'person', 'breakfast', 'full', 'option', 'every', 'customerincluding', 'italian']</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>['hotel', 'best', 'keep', 'guest', 'comfortable', 'possible', 'stay', 'friendly', 'helpful', 'good', 'breakfast', 'evening', 'option', 'available', 'return', 'back', 'dhaka', 'p', 'feeling', 'upgraded', 'internet']</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>['enjoyed', 'stay', 'ascott', 'mosahid', 'helped', 'change', 'roomenjoyed', 'kind', 'welcome', 'every', 'morning', 'dining', 'roomthank', 'smileashishiall', 'staff', 'nicethank', 'see']</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'first', 'last', 'part', 'trip', 'bangladesh', 'well', 'appointed', 'gracious', 'staff', 'comfortable', 'quiet', 'part', 'city', 'airport', 'pick', 'drop', 'service', 'much', 'appreciated', 'nice', 'small', 'work', 'facility', 'favorite', 'part', 'however', 'breakfast', 'delicious', 'expresso', 'graciously', 'made', 'morning', 'sonia', 'basher', 'fresh', 'yogurt', 'fruit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>['excellent', 'guest', 'relation', 'thanks', 'mosahid', 'taking', 'care', 'well', 'attended', 'request', 'diligence', 'memorable', 'stay', 'food', 'good', 'room', 'service', 'excellent', 'excellent', 'internet', 'facility']</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>['small', 'place', 'good', 'servicethe', 'room', 'bigyou', 'dont', 'feel', 'suffocated', 'instruction', 'using', 'everything', 'clearly', 'mentionedit', 'near', 'gulshan', 'shopping', 'area', 'restaurant', 'located']</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>['though', 'one', 'reviewer', 'right', 'sense', 'property', 'bit', 'old', 'well', 'kept', 'maintained', 'service', 'staff', 'professional', 'courteous', 'every', 'level', 'assistance', 'provided', 'make', 'stay', 'comfortable', 'food', 'served', 'indining', 'facility', 'delicious', 'loved', 'area', 'quiet', 'neighborhood', 'well', 'guarded', 'embassy', 'located', 'area', 'clean', 'green', 'even', 'though', 'never', 'get', 'opportunity', 'walk', 'around', 'area', 'short', 'stay', 'would', 'recommend', 'walk', 'park', 'meter', 'away', 'quaint', 'scenery', 'provides', 'would', 'loved', 'toilet', 'could', 'use', 'bit', 'scrubbing', 'though', 'well', 'cleaned', 'short', 'loved', 'stay', 'would', 'recommend', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>['perfect', 'location', 'safe', 'area', 'although', 'quite', 'boring', 'excellent', 'service', 'staff', 'nice', 'food', 'restaurant', 'good', 'gym', 'could', 'improved', 'excellent', 'value', 'money', 'let', 'forget', 'salary', 'bangladesh', 'low']</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>['stayed', 'two', 'week', 'highly', 'recommend', 'hotel', 'staff', 'located', 'quiet', 'heavily', 'secured', 'diplomatic', 'zone', 'baridhara', 'far', 'airport', 'room', 'large', 'comfortably', 'furnished', 'important', 'business', 'desk', 'good', 'lighting', 'wifi', 'addition', 'generous', 'free', 'breakfast', 'offered', 'hotel', 'gym', 'inhouse', 'security', 'detail', 'standout', 'appeal', 'hotel', 'welcoming', 'attentive', 'service', 'provide', 'staff', 'security', 'entry', 'reception', 'restaurant', 'housekeeping', 'id', 'definitely', 'stay', 'return', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>['stayed', 'week', 'property', 'crammed', 'service', 'apartment', 'like', 'hotel', 'smelling', 'pesticide', 'old', 'carpet', 'room', 'need', 'facelift', 'desperately', 'conveniently', 'located', 'diplomatic', 'enclave', 'gulshan', 'dhaka', 'ordered', 'daal', 'fish', 'curry', 'rice', 'kitchen', 'never', 'got', 'right', 'five', 'night', 'misadventure', 'thai', 'food', 'one', 'occasion', 'well', 'staff', 'overworked', 'still', 'cheerful', 'got', 'second', 'star']</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>['hotel', 'located', 'baridhara', 'diplomatic', 'area', 'quite', 'calm', 'safe', 'compared', 'area', 'pickup', 'sending', 'service', 'helpful', 'staff', 'kind', 'hotel', 'great', 'selection', 'breakfast', 'course', 'breakfast', 'delicious']</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'stay', 'located', 'baridhara', 'may', 'avoid', 'heavy', 'traffic', 'dhaka', 'work', 'diplomatic', 'zone', 'quite', 'transportation', 'available', 'hotel', 'transportation', 'food', 'average']</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>['stayed', 'hotel', 'twice', 'visit', 'bangladesh', 'although', 'good', 'safe', 'area', 'staff', 'really', 'friendly', 'accommodating', 'didnt', 'really', 'feel', 'matched', 'mark', 'time', 'stayed', 'colleague', 'change', 'room', 'reason', 'another', 'hotel', 'noisy', 'wine', 'want', 'alcoholic', 'beverage', 'evening', 'research', 'hard', 'find', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'attentive', 'need', 'polite', 'although', 'communication', 'sometimes', 'issue', 'ordering', 'food', 'room', 'small', 'clean', 'hotel', 'small', 'hotel', 'room', 'window', 'lookout', 'wall', 'another', 'building', 'swimming', 'pool', 'complimentary', 'transport', 'tofrom', 'airport', 'helpful', 'traffic', 'hotel', 'busy', 'time', 'year', 'hr', 'room', 'service', 'limited', 'menu', 'list', 'breakfast', 'okay', 'hotel', 'good', 'short', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>['spent', 'couple', 'night', 'hotel', 'due', 'safety', 'location', 'picked', 'complimentary', 'pick', 'service', 'dhaka', 'airport', 'taken', 'airport', 'without', 'problem', 'upon', 'arrival', 'checked', 'counter', 'issue', 'front', 'desk', 'staff', 'courteous', 'short', 'brief', 'introduction', 'amenity', 'hotel', 'told', 'hour', 'breakfast', 'buffet', 'first', 'room', 'received', 'bit', 'dim', 'sheet', 'little', 'bit', 'smelly', 'like', 'moldy', 'smell', 'room', 'clean', 'abundant', 'hot', 'water', 'shower', 'bottled', 'water', 'invitation', 'fruit', 'plate', 'found', 'desk', 'complimentary', 'wifi', 'bit', 'spotty', 'trouble', 'connecting', 'connected']</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>['hotel', 'located', 'close', 'proximity', 'diplomatic', 'office', 'wellguarded', 'secure', 'quiet', 'neighborhood', 'room', 'large', 'adequate', 'space', 'twin', 'bed', 'desk', 'lounge', 'chair', 'television', 'room', 'reasonably', 'clean', 'well', 'lit', 'although', 'light', 'bulb', 'faulty', 'restaurant', 'provides', 'average', 'choice', 'quality', 'food', 'suit', 'different', 'culture', 'also', 'onsite', 'gym', 'reception', 'housekeeping', 'restaurant', 'staff', 'could', 'attentive', 'helpful', 'checkout', 'hotel', 'waived', 'charge', 'airport', 'shuttle', 'way', 'similarly', 'punctual', 'easy', 'use', 'free', 'fast', 'wifi', 'room', 'complaint', 'bed', 'hard', 'uncomfortable', 'aircon', 'quite', 'noisy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>['hotel', 'tucked', 'away', 'quiet', 'guarded', 'residential', 'area', 'mostly', 'expat', 'offer', 'amenity', 'would', 'expect', 'good', 'hotel', 'exceptional', 'roof', 'top', 'restaurant', 'specialises', 'grill', 'barbecue', 'staff', 'extremely', 'helpful', 'considerate', 'gym', 'reasonably', 'equipped', 'well', 'schedule', 'free', 'airport', 'pick', 'ups', 'drop', 'shuttle', 'service', 'run', 'regular', 'interval']</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>['stayed', 'several', 'time', 'stuff', 'professional', 'friendly', 'room', 'spacious', 'clean', 'bathroom', 'also', 'task', 'never', 'used', 'pool', 'cant', 'say', 'anything', 'overall', 'good', 'hotel', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>['service', 'good', 'hotel', 'also', 'neat', 'clean', 'food', 'also', 'delicious', 'place', 'also', 'well', 'maintained', 'room', 'decoration', 'also', 'nice', 'area', 'please', 'dont', 'take', 'room', 'near', 'lift', 'may', 'disturb', 'noise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>['stayed', 'day', 'business', 'travel', 'hotel', 'difficult', 'locate', 'approach', 'visable', 'amenity', 'room', 'condition', 'mark', 'plug', 'point', 'functional', 'room', 'hygenic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>['restaurant', 'good', 'delicious', 'food', 'location', 'also', 'good', 'situated', 'diplomatic', 'zone', 'called', 'baridhara', 'dhaka', 'situated', 'convenient', 'place', 'though', 'public', 'transport', 'hard', 'hail']</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>['hotel', 'situated', 'high', 'security', 'area', 'baridhara', 'diplomatic', 'compound', 'area', 'house', 'many', 'high', 'commission', 'house', 'high', 'commissioner', 'result', 'area', 'secluded', 'hotel', 'good', 'modern', 'business', 'hotel', 'standard', 'amenity']</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>['room', 'service', 'good', 'staff', 'polite', 'courteous', 'wouldnt', 'rate', 'location', 'highly', 'middle', 'residential', 'area', 'commercial', 'establishment', 'restaurant', 'within', 'walking', 'distance', 'transport', 'except', 'bike', 'could', 'mean', 'minute', 'dhaka', 'traffic', 'offer', 'complimentary', 'airport', 'pickup', 'though', 'previous', 'traveller', 'claim', 'received', 'like', 'breakfast', 'gym', 'small', 'crowded', 'room', 'old', 'equipment', 'treadmill', 'seemed', 'could', 'break', 'moment']</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>['conducted', 'training', 'workshop', 'th', 'floor', 'hotel', 'training', 'room', 'basic', 'greenery', 'terrace', 'outside', 'training', 'room', 'pleasant', 'make', 'good', 'break', 'away', 'space', 'worth', 'mentioning', 'excellent', 'service', 'provided', 'restaurant', 'manager', 'alam', 'team', 'alam', 'extremely', 'enthusiastic', 'energetic', 'proactive', 'positive', 'energy', 'person', 'vegetarian', 'enjoyed', 'non', 'spicy', 'vegetarian', 'dish', 'served', 'special', 'request']</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>['checked', 'hotel', 'one', 'night', 'stay', 'offered', 'complimentary', 'airport', 'pick', 'drop', 'impressed', 'boutique', 'hotel', 'frequent', 'visitor', 'dhaka', 'trying', 'get', 'good', 'hotel', 'search', 'ended', 'stayed', 'another', 'hotel', 'ascott', 'palace', 'manager', 'took', 'well', 'impressed', 'quality', 'interior', 'sure', 'back', 'hotel', 'next', 'time', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>['location', 'nice', 'close', 'airport', 'diplomatic', 'area', 'place', 'quiet', 'clean', 'however', 'every', 'location', 'client', 'place', 'though', 'within', 'range', 'km', 'took', 'lot', 'time', 'reach', 'due', 'heavy', 'traffic', 'doesnt', 'move', 'private', 'taxi', 'taken', 'hotel', 'costly', 'internet', 'connectivity', 'good', 'staff', 'hospitable', 'overall', 'experience', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>['nearby', 'airport', 'minute', 'depending', 'traffic', 'jam', 'ascott', 'hotel', 'faculty', 'need', 'short', 'stay', 'except', 'pool', 'small', 'restaurant', 'small', 'spa', 'comfortable', 'room', 'new', 'clean', 'enough', 'large']</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>['pro', 'friendly', 'staff', 'area', 'contra', 'totally', 'overpriced', 'room', 'smelly', 'room', 'smelly', 'corridor', 'room', 'sure', 'old', 'interior', 'old', 'design', 'old', 'shower', 'curtain', 'small', 'window', 'nice', 'view', 'window', 'dark', 'design', 'rip', 'gym', 'state', 'art', 'promised', 'internet', 'broken', 'edge', 'jacuzzi', 'working', 'see', 'photo', 'lol', 'recommend', 'stay', 'apology', 'friendly', 'staff', 'get', 'one', 'worst', 'rip', 'offs', 'history', 'expect', 'star', 'room', 'price', 'usd', 'night', 'joke', 'least', 'everything', 'well', 'maintained']</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>['quaint', 'hospitable', 'hotel', 'staff', 'treat', 'like', 'family', 'werent', 'weak', 'internet', 'link', 'one', 'day', 'would', 'given', 'excellent', 'staff', 'helpful', 'even', 'gave', 'additional', 'coffee', 'fruit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'excellent', 'location', 'road', 'baridhara', 'close', 'gulshan', 'close', 'many', 'embassy', 'gulshanbanani', 'business', 'district', 'service', 'excellent', 'room', 'good', 'nice', 'meal', 'available', 'breakfast', 'dinner', 'smallish', 'conference', 'centre', 'pleasant', 'roof', 'top', 'dinner', 'area', 'next', 'spa', 'fitness', 'centre', 'good', 'concern', 'ascott', 'price', 'getting', 'little', 'expensive', 'compared', 'affordable', 'option', 'available', 'district', 'still', 'represent', 'good', 'value', 'money', 'id', 'hesitation', 'recommending', 'anyone', 'medium', 'size', 'budget', 'spa', 'also', 'getting', 'expensive', 'look', 'alternative', 'close']</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>['business', 'trip', 'dhaka', 'decided', 'reading', 'review', 'book', 'ascott', 'room', 'spacious', 'clean', 'ample', 'closet', 'space', 'shirt', 'trouser', 'staff', 'friendly', 'enough', 'help', 'make', 'stay', 'enjoyable', 'free', 'collection', 'drop', 'available', 'save', 'haggling', 'taxi', 'cost', 'food', 'well', 'prepared', 'paid', 'breakfast', 'limited', 'selection', 'provided', 'keen', 'curry', 'noodle', 'first', 'thing', 'enjoyable', 'stay', 'quite', 'prepared', 'go', 'back', 'next', 'trip', 'short', 'taxi', 'ride', 'paying', 'house', 'transport', 'attraction', 'local', 'would', 'suggest', 'walking', 'night', 'poorly', 'lit', 'roadspaths', 'state', 'disrepair']</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>['first', 'time', 'travel', 'dhaka', 'colleague', 'business', 'stay', 'day', 'staff', 'friendly', 'polite', 'hotel', 'clean', 'food', 'quite', 'good', 'customer', 'care', 'joan', 'friendly', 'helpful', 'always', 'lend', 'help', 'advise', 'u', 'place', 'visit', 'etc', 'place', 'quiet', 'construction', 'next', 'hotel', 'going', 'somehow', 'disturber', 'anyways', 'still', 'acceptable', 'staying', 'hotel', 'time', 'hopefully', 'staying', 'hotel', 'next', 'visit', 'hope', 'see', 'joan', 'peggy', 'mee', 'lily', 'miss']</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>['frequently', 'come', 'dhaka', 'business', 'stay', 'month', 'time', 'find', 'ascott', 'residence', 'staff', 'always', 'eager', 'please', 'hotel', 'kept', 'clean', 'room', 'everything', 'might', 'need', 'long', 'short', 'stay', 'found', 'food', 'quite', 'excellent', 'trying', 'everything', 'staying', 'long', 'period', 'odd', 'change', 'always', 'welcome', 'joanna', 'work', 'marketing', 'many', 'great', 'suggestion', 'outside', 'restaurant', 'experience', 'take', 'extra', 'care', 'insure', 'every', 'customer', 'happy', 'away', 'home', 'hotel', 'located', 'diplomat', 'district', 'safety', 'never', 'feel', 'like', 'concern', 'im', 'quite', 'happy', 'plan', 'say', 'ascott', 'next', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>['second', 'time', 'school', 'stay', 'ascott', 'residence', 'awesome', 'realy', 'enjoyed', 'stay', 'ascott', 'staff', 'professional', 'supportive', 'tv', 'channel', 'need', 'international', 'local', 'indian', 'hope', 'see', 'guy', 'thanks', 'qadeer']</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>['staff', 'cooperative', 'room', 'neatly', 'maintainedif', 'indian', 'even', 'arrange', 'veg', 'stuff', 'requirefrom', 'restaurant', 'purnima', 'sonia', 'faruque', 'well', 'mannered', 'take', 'care', 'personal', 'level', 'secured', 'place', 'located', 'calm', 'quite', 'areagulshan', 'commercial', 'area', 'close', 'get', 'sort', 'helpfrom', 'staffno', 'problem', 'short', 'point', 'price', 'wise', 'bit', 'costlier']</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>['day', 'business', 'trip', 'client', 'booked', 'accommodation', 'ascott', 'good', 'location', 'walking', 'distance', 'workplace', 'located', 'diplomatic', 'zone', 'area', 'safe', 'staff', 'polite', 'courteous', 'friendly', 'joanna', 'customer', 'relation', 'officer', 'also', 'friendly', 'make', 'sure', 'guest', 'comfortable', 'nice', 'lady', 'little', 'suggestion', 'breakfast', 'menu', 'always', 'imagine', 'day', 'stayed', 'hotel', 'food', 'everyday', 'put', 'bit', 'variation', 'maybe', 'every', 'week', 'change', 'menu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>['way', 'star', 'hotel', 'dont', 'know', 'hotel', 'given', 'star', 'changed', 'room', 'first', 'room', 'stinking', 'second', 'room', 'aircon', 'making', 'much', 'noise', 'hence', 'shifted', 'room', 'morning', 'bad', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>['stayed', 'one', 'night', 'business', 'ascott', 'international', 'serviced', 'residence', 'brand', 'singapore', 'branded', 'midhigh', 'range', 'therefore', 'certainly', 'expecting', 'basic', 'setup', 'room', 'clean', 'wellkept', 'basic', 'room', 'layout', 'would', 'expect', 'serviced', 'apartment', 'small', 'dry', 'kitchen', 'living', 'room', 'bedroom', 'bathroom', 'nd', 'floor', 'sound', 'traffic', 'people', 'walking', 'went', 'quite', 'late', 'night', 'bed', 'also', 'hard', 'bedsheets', 'basic', 'safe', 'say', 'best', 'sleep', 'time', 'eat', 'breakfast', 'hotel', 'everybody', 'bangladesh', 'friendly', 'helpful', 'nice', 'know', 'hotel', 'kept', 'standard']</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>['overall', 'say', 'stay', 'quite', 'good', 'bit', 'better', 'stayed', 'hotel', 'year', 'ago', 'basic', 'amenity', 'service', 'near', 'workplace', 'there', 'one', 'thing', 'liked', 'best', 'shower', 'water', 'strong', 'temp', 'easy', 'control', 'staff', 'also', 'generally', 'courteous', 'warm', 'helpful', 'breakfast', 'menu', 'improved', 'though', 'selection', 'quite', 'limited', 'stayed', 'almost', 'week', 'surely', 'get', 'tired', 'food', 'time', 'staff', 'restaurant', 'tendency', 'bit', 'selective', 'serving', 'people', 'different', 'nationality', 'tend', 'favor', 'one', 'restaurant', 'near', 'hotel', 'youre', 'craving']</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>['stayed', 'whole', 'family', 'three', 'night', 'could', 'get', 'usual', 'hotel', 'gulshan', 'hotel', 'look', 'fine', 'outside', 'inside', 'upmarket', 'feeling', 'lobby', 'staying', 'husband', 'year', 'old', 'daughter', 'bedroom', 'suite', 'bedroom', 'two', 'double', 'bed', 'big', 'beautifully', 'decorated', 'also', 'sizable', 'living', 'room', 'kitchen', 'area', 'making', 'easy', 'make', 'tea', 'whole', 'group', 'twin', 'room', 'decorated', 'high', 'standard', 'slightly', 'smaller', 'bedding', 'looked', 'felt', 'luxurious', 'made', 'room', 'look', 'good', 'bed', 'comfortable', 'wall', 'pretty', 'think', 'try', 'talk', 'quietly', 'avoid', 'heard', 'outside', 'room', 'quiet', 'noise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>['stayed', 'ascott', 'last', 'month', 'returning', 'back', 'official', 'trip', 'pleasantly', 'surprised', 'soon', 'entered', 'hotel', 'outside', 'look', 'quite', 'small', 'place', 'well', 'equipped', 'like', 'big', 'hotel', 'room', 'extremely', 'spacious', 'comfortable', 'enough', 'complimentary', 'wifiwhich', 'bit', 'problematic', 'stay', 'tv', 'dth', 'facility', 'fruit', 'basket', 'basic', 'necessity', 'shower', 'well', 'equipped', 'good', 'enough', 'case', 'smoke', 'youd', 'ask', 'smoking', 'room', 'staff', 'helpful', 'polite', 'extra', 'browny', 'point', 'amazing', 'morning', 'breakfast', 'spread', 'food', 'restraunts', 'amazing', 'highly', 'recommended', 'high', 'priced', 'option', 'baridhara', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>['hotel', 'quiet', 'clean', 'cost', 'represnets', 'value', 'money', 'basic', 'bedroom', 'reaonalbe', 'size', 'armchair', 'watch', 'tv', 'bed', 'ok', 'rather', 'hard', 'shower', 'excellent', 'dont', 'like', 'smoke', 'go', 'roons', 'starting', 'number', 'bit', 'confusing', 'th', 'floor', 'food', 'ok', 'expensive', 'hotel', 'coffee', 'could', 'better', 'alcohol', 'served', 'bring', 'take']</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>['small', 'hotel', 'almost', 'everything', 'similar', 'bigger', 'hotel', 'take', 'note', 'renovation', 'taking', 'place', 'behind', 'hotel', 'could', 'noisy', 'room', 'upgraded', 'royal', 'suite', 'extremely', 'spacious', 'kitchen', 'area', 'though', 'much', 'use', 'business', 'trip', 'hotel', 'restaurant', 'give', 'local', 'canned', 'drink', 'charged', 'imported', 'drink', 'price', 'like', 'buck', 'sgd', 'think', 'happen']</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>['stayed', 'september', 'attending', 'friend', 'wedding', 'dhaka', 'hotel', 'located', 'upmarket', 'district', 'dhaka', 'quiet', 'green', 'close', 'airport', 'well', 'decorated', 'staff', 'speak', 'good', 'english', 'excellent', 'room', 'good', 'facility', 'overall', 'pleasant', 'time', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>['stayed', 'deluxe', 'roomrooms', 'clean', 'also', 'shower', 'excelent', 'water', 'fallthe', 'hotel', 'diplomatic', 'zone', 'mean', 'extra', 'safetythe', 'food', 'ok', 'improve', 'room', 'serve', 'still', 'bettervery', 'noisy', 'sorroundings', 'due', 'breakage', 'near', 'building']</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>['stayed', 'number', 'occasion', 'found', 'everything', 'ok', 'staff', 'welcomingrooms', 'clean', 'well', 'maintained', 'problem', 'restaurant', 'order', 'took', 'min', 'arrive', 'ordered', 'basic', 'shaslik', 'chip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>['nd', 'stay', 'ascott', 'near', 'thengo', 'work', 'room', 'frill', 'clean', 'bed', 'okay', 'food', 'average', 'competent', 'friendly', 'front', 'desk', 'staff', 'hotel', 'diplomatic', 'zone', 'mean', 'commercial', 'facility', 'close', 'traffic', 'dhaka', 'bad', 'take', 'minute', 'get', 'somewhere', 'mile', 'away', 'car', 'there', 'rooftop', 'restaurant', 'small', 'gym', 'te', 'premise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>['room', 'clean', 'amenity', 'need', 'stayed', 'deluxe', 'room', 'best', 'worst', 'shower', 'excellent', 'water', 'flow', 'hotcold', 'easily', 'adjusted', 'suit', 'preference', 'many', 'outlet', 'charge', 'device', 'free', 'wifi', 'recommend', 'bringing', 'multiple', 'adaptor', 'bed', 'hard', 'mattress', 'sheet', 'good', 'quality', 'soft', 'comfortable', 'window', 'sealed', 'tightly', 'therefore', 'sound', 'proof', 'allowed', 'construction', 'noise', 'come', 'room', 'beware', 'construction', 'couninues', 'night', 'lcd', 'flat', 'screen', 'tv', 'channel', 'many', 'english', 'speaking', 'subtitled', 'good', 'adjustable', 'air', 'conditioning', 'actually', 'turn', 'service', 'excellent', 'staff', 'friendly', 'accomodating', 'hotel', 'kept']</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>['small', 'hotel', 'great', 'service', 'felt', 'like', 'beeing', 'home', 'personnel', 'helpful', 'friendly', 'food', 'customized', 'since', 'im', 'fan', 'spicy', 'food', 'served', 'part', 'world', 'made', 'spicy', 'without', 'problem', 'hotel', 'placed', 'good', 'neighborhood', 'without', 'crime', 'big', 'noise', 'traffic', 'overall', 'good', 'expected']</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>['stayed', 'route', 'home', 'hotel', 'safe', 'area', 'embassy', 'arrival', 'staff', 'friendly', 'efficient', 'booking', 'dealt', 'quickly', 'arrival', 'room', 'found', 'clean', 'coffee', 'facility', 'good', 'shower', 'hour', 'road', 'traveling', 'good', 'start']</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>['facility', 'include', 'free', 'pickup', 'drop', 'airport', 'far', 'hotel', 'interior', 'hotel', 'nice', 'located', 'residential', 'area', 'shop', 'available', 'nearby', 'shop', 'even', 'barber', 'shop', 'inside', 'hotel', 'staff', 'member', 'wellbehaved', 'cooperative', 'despite', 'compared', 'price', 'nearly', 'u', 'room', 'per', 'night', 'including', 'vat', 'service', 'charge', 'accommodation', 'judgment', 'worth', 'money']</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>['quiet', 'safe', 'heart', 'baridhara', 'suite', 'lengthy', 'stay', 'found', 'room', 'spacious', 'although', 'bed', 'quite', 'hard', 'staff', 'pleasent', 'helpful', 'breakfast', 'adequate', 'adequate']</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>['reason', 'rate', 'poor', 'personally', 'feel', 'hotel', 'star', 'feel', 'personally', 'counter', 'several', 'unhappy', 'situation', 'however', 'fixed', 'hotel', 'management', 'felt', 'paid', 'learn', 'lesson', 'pro', 'ascott', 'residence', 'two', 'award', 'country', 'dont', 'know', 'award', 'sound', 'great', 'room', 'equip', 'lcd', 'tv', 'tv', 'channel', 'provided', 'ml', 'water', 'day', 'room', 'cleaner', 'free', 'news', 'paper', 'day', 'fix', 'complain', 'next', 'cob', 'day', 'free', 'shuttle', 'tofrom', 'dhaka', 'airport', 'alot', 'power', 'socket', 'point', 'mini', 'fridge', 'available', 'independent', 'air', 'cond', 'unitwhich', 'adjust', 'preference', 'temperature', 'con', 'terrible', 'internet', 'speed', 'difficulty', 'skype', 'call', 'peak', 'hour', 'dont']</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>['certainly', 'hotel', 'stay', 'antismoker', 'room', 'smell', 'strongly', 'stale', 'cigarette', 'smoke', 'pleasant', 'bedroom', 'comfortable', 'bathroom', 'facility', 'good', 'disappointed', 'breakfast', 'travelling', 'lot', 'recent', 'month', 'work', 'first', 'hotel', 'think', 'breakfast', 'lacking', 'poor', 'choice', 'food', 'display', 'great', 'didnt', 'eat', 'restaurant', 'dinner', 'room', 'service', 'last', 'night', 'food', 'mediocre', 'fry', 'inedible', 'plus', 'side', 'lovely', 'staff', 'reception', 'clean', 'pleasant', 'importantly', 'felt', 'safe', 'definitely', 'choice', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>['stay', 'ok', 'bfast', 'ok', 'airport', 'shuttle', 'provided', 'foc', 'downside', 'last', 'day', 'check', 'charge', 'room', 'already', 'paid', 'via', 'website', 'ive', 'premier', 'member', 'website', 'explain', 'everything', 'already', 'paid', 'staff', 'told', 'maybe', 'paid', 'website', 'website', 'havent', 'pay', 'hotel', 'took', 'staff', 'including', 'manager', 'check', 'minute', 'waiting', 'finally', 'told', 'everything', 'ok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>['option', 'business', 'bardhara', 'district', 'good', 'place', 'stay', 'stayed', 'three', 'week', 'first', 'week', 'stay', 'royal', 'suite', 'th', 'floor', 'last', 'two', 'week', 'stayed', 'premium', 'room', 'fine', 'clean', 'wellsprayed', 'ward', 'mosquito', 'would', 'preferred', 'suite', 'long', 'stay', 'werent', 'dark', 'faced', 'building', 'view', 'terrible', 'quieter', 'premium', 'room', 'actually', 'quite', 'nice', 'faced', 'street', 'even', 'though', 'heard', 'street', 'noise', 'daylight', 'sunrise', 'lovely', 'dilemma', 'mosque', 'half', 'block', 'away', 'prayer', 'call', 'surprising', 'first', 'get', 'used', 'like', 'thing', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>['found', 'hotel', 'lacking', 'many', 'aspect', 'room', 'ok', 'size', 'mosquites', 'bathroom', 'little', 'low', 'lighting', 'hot', 'water', 'took', 'age', 'shower', 'turned', 'mosquito', 'spray', 'led', 'dead', 'roach', 'turning', 'room', 'breakfast', 'pretty', 'limited', 'offering', 'best', 'part', 'hotel', 'rooftop', 'bbq', 'served', 'good', 'quality', 'food', 'though', 'tad', 'expensive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>['willing', 'long', 'stay', 'dhaka', 'ascott', 'right', 'place', 'staff', 'quite', 'warm', 'room', 'comfortable', 'fooding', 'always', 'challange', 'limited', 'menu', 'since', 'si', 'located', 'diplomatic', 'zone', 'dhaka', 'outside', 'environment', 'look', 'safe']</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>['poor', 'quality', 'hotel', 'claustrophobic', 'room', 'bad', 'toilet', 'service', 'missing', 'spite', 'high', 'charge', 'even', 'mini', 'bar', 'kitchenette', 'missing', 'food', 'costly', 'staff', 'reception', 'non', 'communicative', 'confused', 'charged', 'breakfast', 'supposed', 'complimentary']</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>['true', 'residence', 'almost', 'family', 'atmosphere', 'hotel', 'new', 'clean', 'service', 'friendly', 'social', 'diner', 'night', 'fine', 'choice', 'asian', 'la', 'carte', 'buffet', 'la', 'carte', 'take', 'minute', 'bring', 'first', 'dish', 'breakfast', 'warm', 'asian', 'buffet', 'lack', 'western', 'option', 'despite', 'quite', 'area', 'thin', 'wall', 'window', 'allow', 'disturbance', 'night', 'dhaka', 'area', 'attractive', 'alternative', 'raddisson', 'westin', 'unless', 'expect', 'less']</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'opened', 'april', 'good', 'choice', 'room', 'well', 'furnished', 'clean', 'room', 'light', 'airy', 'spacious', 'stayed', 'superior', 'double', 'downside', 'ac', 'blew', 'onto', 'bed', 'free', 'internet', 'wireless', 'food', 'restaurant', 'good', 'although', 'item', 'menu', 'available', 'staff', 'pleasant', 'really', 'ball', 'overall', 'good', 'hotel', 'would', 'definately', 'recommend', 'stay', 'pleasure']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>